--- a/CMS SAF/PQI Elixhauser CCI/PQIRegexBuilder.xlsx
+++ b/CMS SAF/PQI Elixhauser CCI/PQIRegexBuilder.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Dev\OSUDatacore\CMS SAF\PQI Elixhauser CCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292356E-31AC-4F68-9FB1-A9E643F44C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB77CF03-49D1-487D-BC64-1BAE69EC7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22140" yWindow="2268" windowWidth="18036" windowHeight="8460" xr2:uid="{144A000C-2920-4EA8-87D8-823EFC9E4711}"/>
+    <workbookView xWindow="51480" yWindow="4995" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{144A000C-2920-4EA8-87D8-823EFC9E4711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="ICD9" sheetId="2" r:id="rId2"/>
+    <sheet name="CCI" sheetId="3" r:id="rId3"/>
+    <sheet name="Elix" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6492" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="1021">
   <si>
     <t>)",re.IGNORECASE)</t>
   </si>
@@ -2758,16 +2761,369 @@
   </si>
   <si>
     <t>pqi16A2</t>
+  </si>
+  <si>
+    <t>https://qualityindicators.ahrq.gov/Archive/PQI_TechSpec_ICD10_v60.aspx</t>
+  </si>
+  <si>
+    <t>PQI01</t>
+  </si>
+  <si>
+    <t>PQI02</t>
+  </si>
+  <si>
+    <t>PQI03</t>
+  </si>
+  <si>
+    <t>PQI05</t>
+  </si>
+  <si>
+    <t>PQI07</t>
+  </si>
+  <si>
+    <t>PQI08</t>
+  </si>
+  <si>
+    <t>PQI09</t>
+  </si>
+  <si>
+    <t>PQI10</t>
+  </si>
+  <si>
+    <t>PQI11</t>
+  </si>
+  <si>
+    <t>PQI12</t>
+  </si>
+  <si>
+    <t>PQI14</t>
+  </si>
+  <si>
+    <t>PQI15</t>
+  </si>
+  <si>
+    <t>PQI05NOT</t>
+  </si>
+  <si>
+    <t>PQI07NOT</t>
+  </si>
+  <si>
+    <t>PQI07NOTProc</t>
+  </si>
+  <si>
+    <t>N171</t>
+  </si>
+  <si>
+    <t>PQI10NOT</t>
+  </si>
+  <si>
+    <t>PQI11NOT</t>
+  </si>
+  <si>
+    <t>PQI12NOT</t>
+  </si>
+  <si>
+    <t>PQI15NOT</t>
+  </si>
+  <si>
+    <t>PQI16Proc</t>
+  </si>
+  <si>
+    <t>PQI16AND</t>
+  </si>
+  <si>
+    <t>S98222A</t>
+  </si>
+  <si>
+    <t>PQI16NOTPROC</t>
+  </si>
+  <si>
+    <t>Deyo's ICD-9-CM</t>
+  </si>
+  <si>
+    <t>CCI01</t>
+  </si>
+  <si>
+    <t>CCI02</t>
+  </si>
+  <si>
+    <t>v434</t>
+  </si>
+  <si>
+    <t>CCI03</t>
+  </si>
+  <si>
+    <t>CCI04</t>
+  </si>
+  <si>
+    <t>CCI05</t>
+  </si>
+  <si>
+    <t>CCI06</t>
+  </si>
+  <si>
+    <t>CCI07</t>
+  </si>
+  <si>
+    <t>CCI08</t>
+  </si>
+  <si>
+    <t>CCI09</t>
+  </si>
+  <si>
+    <t>CCI10</t>
+  </si>
+  <si>
+    <t>CCI11</t>
+  </si>
+  <si>
+    <t>CCI03p</t>
+  </si>
+  <si>
+    <t>CCI12</t>
+  </si>
+  <si>
+    <t>CCI13</t>
+  </si>
+  <si>
+    <t>CCI14</t>
+  </si>
+  <si>
+    <t>CCI15</t>
+  </si>
+  <si>
+    <t>CCI16</t>
+  </si>
+  <si>
+    <t>CCI17</t>
+  </si>
+  <si>
+    <t>ELX01</t>
+  </si>
+  <si>
+    <t>ELX02</t>
+  </si>
+  <si>
+    <t>ELX03</t>
+  </si>
+  <si>
+    <t>ELX04</t>
+  </si>
+  <si>
+    <t>ELX05</t>
+  </si>
+  <si>
+    <t>ELX06</t>
+  </si>
+  <si>
+    <t>ELX07</t>
+  </si>
+  <si>
+    <t>ELX08</t>
+  </si>
+  <si>
+    <t>ELX09</t>
+  </si>
+  <si>
+    <t>ELX10</t>
+  </si>
+  <si>
+    <t>ELX11</t>
+  </si>
+  <si>
+    <t>ELX12</t>
+  </si>
+  <si>
+    <t>ELX13</t>
+  </si>
+  <si>
+    <t>ELX14</t>
+  </si>
+  <si>
+    <t>ELX15</t>
+  </si>
+  <si>
+    <t>ELX16</t>
+  </si>
+  <si>
+    <t>ELX17</t>
+  </si>
+  <si>
+    <t>ELX18</t>
+  </si>
+  <si>
+    <t>ELX19</t>
+  </si>
+  <si>
+    <t>ELX20</t>
+  </si>
+  <si>
+    <t>ELX21</t>
+  </si>
+  <si>
+    <t>ELX22</t>
+  </si>
+  <si>
+    <t>ELX23</t>
+  </si>
+  <si>
+    <t>V450</t>
+  </si>
+  <si>
+    <t>V533</t>
+  </si>
+  <si>
+    <t>0932</t>
+  </si>
+  <si>
+    <t>V422</t>
+  </si>
+  <si>
+    <t>V433</t>
+  </si>
+  <si>
+    <t>V434</t>
+  </si>
+  <si>
+    <t>V420</t>
+  </si>
+  <si>
+    <t>V451</t>
+  </si>
+  <si>
+    <t>V560</t>
+  </si>
+  <si>
+    <t>V568</t>
+  </si>
+  <si>
+    <t>07032</t>
+  </si>
+  <si>
+    <t>07033</t>
+  </si>
+  <si>
+    <t>07054</t>
+  </si>
+  <si>
+    <t>V427</t>
+  </si>
+  <si>
+    <t>V1271</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>V1071</t>
+  </si>
+  <si>
+    <t>V1072</t>
+  </si>
+  <si>
+    <t>V1079</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V113</t>
+  </si>
+  <si>
+    <t>ELX24</t>
+  </si>
+  <si>
+    <t>ELX25</t>
+  </si>
+  <si>
+    <t>ELX26</t>
+  </si>
+  <si>
+    <t>ELX27</t>
+  </si>
+  <si>
+    <t>ELX28</t>
+  </si>
+  <si>
+    <t>ELX29</t>
+  </si>
+  <si>
+    <t>ELX30</t>
+  </si>
+  <si>
+    <t>ELX31</t>
+  </si>
+  <si>
+    <t>Elixhauser's</t>
+  </si>
+  <si>
+    <t>00861</t>
+  </si>
+  <si>
+    <t>00862</t>
+  </si>
+  <si>
+    <t>00863</t>
+  </si>
+  <si>
+    <t>00864</t>
+  </si>
+  <si>
+    <t>00865</t>
+  </si>
+  <si>
+    <t>00866</t>
+  </si>
+  <si>
+    <t>00867</t>
+  </si>
+  <si>
+    <t>00869</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2793,9 +3149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3112,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF03D62-DF0B-46CF-B5F6-547703A8F7C7}">
   <dimension ref="A3:JV137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23711,4 +24068,5901 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CC263-30BD-4C84-A6B3-C86C938CA5C9}">
+  <dimension ref="A1:FI33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
+        <v>df['PQI01']=df['dxall'].str.contains(PQI01, regex=True)</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" t="str">
+        <f>$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D12:JS12)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:E1010|E1011|E10641|E1065|E1100|E1101|E11641|E1165|25010|25011|25012|25013|25020|25021|25022|25023|25030|25031|25032|25033)",re.IGNORECASE)</v>
+      </c>
+      <c r="D12" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>25010</v>
+      </c>
+      <c r="M12">
+        <v>25011</v>
+      </c>
+      <c r="N12">
+        <v>25012</v>
+      </c>
+      <c r="O12">
+        <v>25013</v>
+      </c>
+      <c r="P12">
+        <v>25020</v>
+      </c>
+      <c r="Q12">
+        <v>25021</v>
+      </c>
+      <c r="R12">
+        <v>25022</v>
+      </c>
+      <c r="S12">
+        <v>25023</v>
+      </c>
+      <c r="T12">
+        <v>25030</v>
+      </c>
+      <c r="U12">
+        <v>25031</v>
+      </c>
+      <c r="V12">
+        <v>25032</v>
+      </c>
+      <c r="W12">
+        <v>25033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A33" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
+        <v>df['PQI02']=df['dxall'].str.contains(PQI02, regex=True)</v>
+      </c>
+      <c r="B13" t="s">
+        <v>910</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C33" si="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D13:JS13)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:K352|K353|5400|5401)",re.IGNORECASE)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" t="s">
+        <v>605</v>
+      </c>
+      <c r="F13">
+        <v>5400</v>
+      </c>
+      <c r="G13">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI03']=df['dxall'].str.contains(PQI03, regex=True)</v>
+      </c>
+      <c r="B14" t="s">
+        <v>911</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E1021|E1022|E1029|E10311|E10319|E10321|E10329|E10331|E10339|E10341|E1121|E1122|E1129|E11311|E11319|E11321|E11331|E11329|E11339|E11341|E10349|E10351|E10359|E1036|E1039|E1040|E1041|E1042|E1043|E1044|E1049|E1051|E1052|E1059|E11349|E11351|E11359|E1136|E1139|E1140|E1141|E1142|E1143|E1144|E1149|E1151|E1152|E1159|E10610|E10618|E10620|E10621|E10622|E10628|E10630|E10638|E1069|E108|E11610|E11618|E11620|E11621|E11622|E11628|E11630|E11638|E1169|E118|25040|25041|25042|25043|25050|25051|25052|25053|25060|25061|25062|25063|25070|25071|25072|25073|25080|25081|25082|25083|25084|25085|25092|25093)",re.IGNORECASE)</v>
+      </c>
+      <c r="D14" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT14">
+        <v>25040</v>
+      </c>
+      <c r="BU14">
+        <f>BT14+1</f>
+        <v>25041</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" ref="BV14:CQ14" si="2">BU14+1</f>
+        <v>25042</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="2"/>
+        <v>25043</v>
+      </c>
+      <c r="BX14">
+        <f>BT14+10</f>
+        <v>25050</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="2"/>
+        <v>25051</v>
+      </c>
+      <c r="BZ14">
+        <f t="shared" si="2"/>
+        <v>25052</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="2"/>
+        <v>25053</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" ref="CB14" si="3">BX14+10</f>
+        <v>25060</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" si="2"/>
+        <v>25061</v>
+      </c>
+      <c r="CD14">
+        <f t="shared" si="2"/>
+        <v>25062</v>
+      </c>
+      <c r="CE14">
+        <f t="shared" si="2"/>
+        <v>25063</v>
+      </c>
+      <c r="CF14">
+        <f t="shared" ref="CF14" si="4">CB14+10</f>
+        <v>25070</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="2"/>
+        <v>25071</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="2"/>
+        <v>25072</v>
+      </c>
+      <c r="CI14">
+        <f t="shared" si="2"/>
+        <v>25073</v>
+      </c>
+      <c r="CJ14">
+        <f t="shared" ref="CJ14" si="5">CF14+10</f>
+        <v>25080</v>
+      </c>
+      <c r="CK14">
+        <f t="shared" si="2"/>
+        <v>25081</v>
+      </c>
+      <c r="CL14">
+        <f>CH14+10</f>
+        <v>25082</v>
+      </c>
+      <c r="CM14">
+        <f t="shared" si="2"/>
+        <v>25083</v>
+      </c>
+      <c r="CN14">
+        <f t="shared" si="2"/>
+        <v>25084</v>
+      </c>
+      <c r="CO14">
+        <f t="shared" si="2"/>
+        <v>25085</v>
+      </c>
+      <c r="CP14">
+        <f t="shared" ref="CP14" si="6">CL14+10</f>
+        <v>25092</v>
+      </c>
+      <c r="CQ14">
+        <f t="shared" si="2"/>
+        <v>25093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI05']=df['dxall'].str.contains(PQI05, regex=True)</v>
+      </c>
+      <c r="B15" t="s">
+        <v>912</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:J410|J411|J418|J42|J430|J431|J432|J438|J439|J440|J441|J4521|J4522|J4531|J4532|J4541|J4542|J4551|J4552|J45901|J45902|J45990|J45991|J45998|J470|J471|J479|4910|4911|49120|49121|49122|4918|1919|1920|1928|494|4940|4941|496|49300|49301|49302|49310|49311|49312|49320|49321|49322|49381|49382|49390|49391|49392)",re.IGNORECASE)</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U15" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" t="s">
+        <v>102</v>
+      </c>
+      <c r="W15" t="s">
+        <v>103</v>
+      </c>
+      <c r="X15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE15">
+        <v>4910</v>
+      </c>
+      <c r="AF15">
+        <v>4911</v>
+      </c>
+      <c r="AG15">
+        <v>49120</v>
+      </c>
+      <c r="AH15">
+        <v>49121</v>
+      </c>
+      <c r="AI15">
+        <v>49122</v>
+      </c>
+      <c r="AJ15">
+        <v>4918</v>
+      </c>
+      <c r="AK15">
+        <v>1919</v>
+      </c>
+      <c r="AL15">
+        <v>1920</v>
+      </c>
+      <c r="AM15">
+        <v>1928</v>
+      </c>
+      <c r="AN15">
+        <v>494</v>
+      </c>
+      <c r="AO15">
+        <v>4940</v>
+      </c>
+      <c r="AP15">
+        <v>4941</v>
+      </c>
+      <c r="AQ15">
+        <v>496</v>
+      </c>
+      <c r="AR15">
+        <v>49300</v>
+      </c>
+      <c r="AS15">
+        <f>AR15+1</f>
+        <v>49301</v>
+      </c>
+      <c r="AT15">
+        <f>AS15+1</f>
+        <v>49302</v>
+      </c>
+      <c r="AU15">
+        <f>AR15+10</f>
+        <v>49310</v>
+      </c>
+      <c r="AV15">
+        <f>AU15+1</f>
+        <v>49311</v>
+      </c>
+      <c r="AW15">
+        <f>AV15+1</f>
+        <v>49312</v>
+      </c>
+      <c r="AX15">
+        <f>AU15+10</f>
+        <v>49320</v>
+      </c>
+      <c r="AY15">
+        <f>AX15+1</f>
+        <v>49321</v>
+      </c>
+      <c r="AZ15">
+        <f>AY15+1</f>
+        <v>49322</v>
+      </c>
+      <c r="BA15">
+        <f>49381</f>
+        <v>49381</v>
+      </c>
+      <c r="BB15">
+        <v>49382</v>
+      </c>
+      <c r="BC15">
+        <v>49390</v>
+      </c>
+      <c r="BD15">
+        <v>49391</v>
+      </c>
+      <c r="BE15">
+        <v>49392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI05NOT']=df['dxall'].str.contains(PQI05NOT, regex=True)</v>
+      </c>
+      <c r="B16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E840|E8411|E8419|E848|E849|J8483|J84841|J84842|J84843|J84848|P270|P271|P278|P279|Q254|Q311|Q312|Q313|Q315|Q318|Q319|Q320|Q321|Q322|Q323|Q324|Q330|Q331|Q332|Q333|Q334|Q335|Q336|Q338|Q339|Q340|Q341|Q348|Q349|Q390|Q391|Q392|Q393|Q394|27700|27701|27702|27703|27709|51661|51662|51663|51664|51669|74721|7483|7484|7485|74860|74861|74869|7488|7489|7503|7593|7707)",re.IGNORECASE)</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V16" t="s">
+        <v>126</v>
+      </c>
+      <c r="W16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV16">
+        <v>27700</v>
+      </c>
+      <c r="AW16">
+        <f>AV16+1</f>
+        <v>27701</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" ref="AX16:AY16" si="7">AW16+1</f>
+        <v>27702</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="7"/>
+        <v>27703</v>
+      </c>
+      <c r="AZ16">
+        <v>27709</v>
+      </c>
+      <c r="BA16">
+        <v>51661</v>
+      </c>
+      <c r="BB16">
+        <f>BA16+1</f>
+        <v>51662</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" ref="BC16:BE16" si="8">BB16+1</f>
+        <v>51663</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="8"/>
+        <v>51664</v>
+      </c>
+      <c r="BE16">
+        <v>51669</v>
+      </c>
+      <c r="BF16">
+        <v>74721</v>
+      </c>
+      <c r="BG16">
+        <v>7483</v>
+      </c>
+      <c r="BH16">
+        <v>7484</v>
+      </c>
+      <c r="BI16">
+        <v>7485</v>
+      </c>
+      <c r="BJ16">
+        <v>74860</v>
+      </c>
+      <c r="BK16">
+        <v>74861</v>
+      </c>
+      <c r="BL16">
+        <v>74869</v>
+      </c>
+      <c r="BM16">
+        <v>7488</v>
+      </c>
+      <c r="BN16">
+        <v>7489</v>
+      </c>
+      <c r="BO16">
+        <v>7503</v>
+      </c>
+      <c r="BP16">
+        <v>7593</v>
+      </c>
+      <c r="BQ16">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI07']=df['dxall'].str.contains(PQI07, regex=True)</v>
+      </c>
+      <c r="B17" t="s">
+        <v>913</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:I10|I119|I129|I1310|4010|4019|40200|40210|40290|40300|40310|40390|40400|40410|40490)",re.IGNORECASE)</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17">
+        <v>4010</v>
+      </c>
+      <c r="I17">
+        <v>4019</v>
+      </c>
+      <c r="J17">
+        <v>40200</v>
+      </c>
+      <c r="K17">
+        <v>40210</v>
+      </c>
+      <c r="L17">
+        <v>40290</v>
+      </c>
+      <c r="M17">
+        <v>40300</v>
+      </c>
+      <c r="N17">
+        <v>40310</v>
+      </c>
+      <c r="O17">
+        <v>40390</v>
+      </c>
+      <c r="P17">
+        <v>40400</v>
+      </c>
+      <c r="Q17">
+        <v>40410</v>
+      </c>
+      <c r="R17">
+        <v>40490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI07NOT']=df['dxall'].str.contains(PQI07NOT, regex=True)</v>
+      </c>
+      <c r="B18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:I129|I1310|40300|40310|40390|40400|40410|40490)",re.IGNORECASE)</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18">
+        <v>40300</v>
+      </c>
+      <c r="G18">
+        <v>40310</v>
+      </c>
+      <c r="H18">
+        <v>40390</v>
+      </c>
+      <c r="I18">
+        <v>40400</v>
+      </c>
+      <c r="J18">
+        <v>40410</v>
+      </c>
+      <c r="K18">
+        <v>40490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI07NOTProc']=df['dxall'].str.contains(PQI07NOTProc, regex=True)</v>
+      </c>
+      <c r="B19" t="s">
+        <v>923</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:03170AD|031209D|031209F|03120AD|03120AF|03120JD|03120JF|03120KD|03120KF|03120ZD|03120ZF|031309D|031309F|03130AD|03130AF|03130JD|03130JF|03130KD|03130KF|03130ZD|03130ZF|031409D|031409F|03140AD|03140AF|03140JD|03140JF|03140KD|03140KF|03140ZD|03140ZF|031509D|031509F|03150AD|03150AF|03150JD|03150JF|03150KD|03150KF|03150ZD|03150ZF|031609D|031609F|03160AD|03160AF|03160JD|03160JF|03160KD|03160KF|03160ZD|03160ZF|031709D|031709F|03170AF|03170JD|03170JF|03170KD|03170KF|03170ZD|03170ZF|031809D|031809F|03180AD|03180AF|03180JD|03180JF|03180KD|03180KF|03180ZD|03180ZF|031909F|03190AF|03190JF|03190KF|03190ZF|031A09F|031A0AF|031A0JF|031A0KF|031A0ZF|031B09F|031B0AF|031B0JF|031B0KF|031B0ZF|031C09F|031C0AF|031C0JF|031C0KF|031C0ZF|03PY07Z|03PY0JZ|03PY0KZ|03PY37Z|03PY3JZ|03PY3KZ|03PY47Z|03PY4JZ|03PY4KZ|03WY0JZ|03WY3JZ|03WY4JZ|03WYXJZ|05HY33Z|06HY33Z|3895|3927|3929|3942|3943|3993|3994)",re.IGNORECASE)</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19" t="s">
+        <v>174</v>
+      </c>
+      <c r="T19" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V19" t="s">
+        <v>177</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>224</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>225</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>226</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>227</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>228</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>232</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>236</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>237</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>238</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>239</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>240</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>241</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>242</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>243</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>244</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>245</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>246</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>247</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>248</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>249</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>250</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>251</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>252</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>254</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>255</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>256</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>257</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>258</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>259</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>260</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>261</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>262</v>
+      </c>
+      <c r="DE19">
+        <v>3895</v>
+      </c>
+      <c r="DF19">
+        <v>3927</v>
+      </c>
+      <c r="DG19">
+        <v>3929</v>
+      </c>
+      <c r="DH19">
+        <v>3942</v>
+      </c>
+      <c r="DI19">
+        <v>3943</v>
+      </c>
+      <c r="DJ19">
+        <v>3993</v>
+      </c>
+      <c r="DK19">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI08']=df['dxall'].str.contains(PQI08, regex=True)</v>
+      </c>
+      <c r="B20" t="s">
+        <v>914</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:I0981|I110|I130|I132|I501|I5020|I5021|I5022|I5023|I5030|I5031|I5032|I5033|I5040|I5041|I5042|I5043|I509|39891|40201|40211|40291|40401|40413|40491|40493|4280|4281|42820|42821|42822|42823|42830|42831|42832|42833|42840|42841|42842|42843|4289)",re.IGNORECASE)</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" t="s">
+        <v>270</v>
+      </c>
+      <c r="K20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" t="s">
+        <v>273</v>
+      </c>
+      <c r="N20" t="s">
+        <v>274</v>
+      </c>
+      <c r="O20" t="s">
+        <v>275</v>
+      </c>
+      <c r="P20" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>277</v>
+      </c>
+      <c r="R20" t="s">
+        <v>278</v>
+      </c>
+      <c r="S20" t="s">
+        <v>279</v>
+      </c>
+      <c r="T20" t="s">
+        <v>280</v>
+      </c>
+      <c r="U20" t="s">
+        <v>281</v>
+      </c>
+      <c r="V20">
+        <v>39891</v>
+      </c>
+      <c r="W20">
+        <v>40201</v>
+      </c>
+      <c r="X20">
+        <v>40211</v>
+      </c>
+      <c r="Y20">
+        <v>40291</v>
+      </c>
+      <c r="Z20">
+        <v>40401</v>
+      </c>
+      <c r="AA20">
+        <v>40413</v>
+      </c>
+      <c r="AB20">
+        <v>40491</v>
+      </c>
+      <c r="AC20">
+        <v>40493</v>
+      </c>
+      <c r="AD20">
+        <v>4280</v>
+      </c>
+      <c r="AE20">
+        <v>4281</v>
+      </c>
+      <c r="AF20">
+        <v>42820</v>
+      </c>
+      <c r="AG20">
+        <v>42821</v>
+      </c>
+      <c r="AH20">
+        <v>42822</v>
+      </c>
+      <c r="AI20">
+        <v>42823</v>
+      </c>
+      <c r="AJ20">
+        <v>42830</v>
+      </c>
+      <c r="AK20">
+        <f>AJ20+1</f>
+        <v>42831</v>
+      </c>
+      <c r="AL20">
+        <f>AK20+1</f>
+        <v>42832</v>
+      </c>
+      <c r="AM20">
+        <f>AL20+1</f>
+        <v>42833</v>
+      </c>
+      <c r="AN20">
+        <f>AJ20+10</f>
+        <v>42840</v>
+      </c>
+      <c r="AO20">
+        <f>AN20+1</f>
+        <v>42841</v>
+      </c>
+      <c r="AP20">
+        <f>AO20+1</f>
+        <v>42842</v>
+      </c>
+      <c r="AQ20">
+        <f>AP20+1</f>
+        <v>42843</v>
+      </c>
+      <c r="AR20">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI09']=df['dxall'].str.contains(PQI09, regex=True)</v>
+      </c>
+      <c r="B21" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:P0501|P0502|P0503|P0504|P0505|P0506|P0507|P0508|P0511|P0512|P0513|P0514|P0515|P0516|P0517|P0518|P0700|P0701|P0702|P0703|P0710|P0714|P0715|P0716|P0717|P0718|76400|76401|76402|76403|76404|76405|76406|76407|76408|76410|76411|76412|76413|76414|76415|76416|76417|76418|76420|76421|76422|76423|76424|76425|76426|76427|76428|76490|76491|76492|76493|76494|76495|76496|76497|76498|76500|76501|76502|76503|76504|76505|76506|76507|76508|76510|76511|76512|76513|76514|76515|76516|76517|76518)",re.IGNORECASE)</v>
+      </c>
+      <c r="D21" t="s">
+        <v>610</v>
+      </c>
+      <c r="E21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21" t="s">
+        <v>612</v>
+      </c>
+      <c r="G21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H21" t="s">
+        <v>614</v>
+      </c>
+      <c r="I21" t="s">
+        <v>615</v>
+      </c>
+      <c r="J21" t="s">
+        <v>616</v>
+      </c>
+      <c r="K21" t="s">
+        <v>617</v>
+      </c>
+      <c r="L21" t="s">
+        <v>618</v>
+      </c>
+      <c r="M21" t="s">
+        <v>619</v>
+      </c>
+      <c r="N21" t="s">
+        <v>620</v>
+      </c>
+      <c r="O21" t="s">
+        <v>621</v>
+      </c>
+      <c r="P21" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>623</v>
+      </c>
+      <c r="R21" t="s">
+        <v>624</v>
+      </c>
+      <c r="S21" t="s">
+        <v>625</v>
+      </c>
+      <c r="T21" t="s">
+        <v>626</v>
+      </c>
+      <c r="U21" t="s">
+        <v>627</v>
+      </c>
+      <c r="V21" t="s">
+        <v>628</v>
+      </c>
+      <c r="W21" t="s">
+        <v>629</v>
+      </c>
+      <c r="X21" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD21">
+        <v>76400</v>
+      </c>
+      <c r="AE21">
+        <f>AD21+1</f>
+        <v>76401</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" ref="AF21:AK21" si="9">AE21+1</f>
+        <v>76402</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="9"/>
+        <v>76403</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="9"/>
+        <v>76404</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="9"/>
+        <v>76405</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="9"/>
+        <v>76406</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="9"/>
+        <v>76407</v>
+      </c>
+      <c r="AL21">
+        <f>AK21+1</f>
+        <v>76408</v>
+      </c>
+      <c r="AM21">
+        <f>AD21+10</f>
+        <v>76410</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" ref="AN21:BD21" si="10">AE21+10</f>
+        <v>76411</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="10"/>
+        <v>76412</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="10"/>
+        <v>76413</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="10"/>
+        <v>76414</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="10"/>
+        <v>76415</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="10"/>
+        <v>76416</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="10"/>
+        <v>76417</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="10"/>
+        <v>76418</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="10"/>
+        <v>76420</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="10"/>
+        <v>76421</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="10"/>
+        <v>76422</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="10"/>
+        <v>76423</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="10"/>
+        <v>76424</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="10"/>
+        <v>76425</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="10"/>
+        <v>76426</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="10"/>
+        <v>76427</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="10"/>
+        <v>76428</v>
+      </c>
+      <c r="BE21">
+        <f>76490</f>
+        <v>76490</v>
+      </c>
+      <c r="BF21">
+        <f>BE21+1</f>
+        <v>76491</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" ref="BG21:BM21" si="11">BF21+1</f>
+        <v>76492</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="11"/>
+        <v>76493</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="11"/>
+        <v>76494</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="11"/>
+        <v>76495</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="11"/>
+        <v>76496</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" si="11"/>
+        <v>76497</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="11"/>
+        <v>76498</v>
+      </c>
+      <c r="BN21">
+        <v>76500</v>
+      </c>
+      <c r="BO21">
+        <f>BN21+1</f>
+        <v>76501</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" ref="BP21:BV21" si="12">BO21+1</f>
+        <v>76502</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="12"/>
+        <v>76503</v>
+      </c>
+      <c r="BR21">
+        <f t="shared" si="12"/>
+        <v>76504</v>
+      </c>
+      <c r="BS21">
+        <f t="shared" si="12"/>
+        <v>76505</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" si="12"/>
+        <v>76506</v>
+      </c>
+      <c r="BU21">
+        <f t="shared" si="12"/>
+        <v>76507</v>
+      </c>
+      <c r="BV21">
+        <f t="shared" si="12"/>
+        <v>76508</v>
+      </c>
+      <c r="BW21">
+        <f>76510</f>
+        <v>76510</v>
+      </c>
+      <c r="BX21">
+        <f>BW21+1</f>
+        <v>76511</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" ref="BY21:CE21" si="13">BX21+1</f>
+        <v>76512</v>
+      </c>
+      <c r="BZ21">
+        <f t="shared" si="13"/>
+        <v>76513</v>
+      </c>
+      <c r="CA21">
+        <f t="shared" si="13"/>
+        <v>76514</v>
+      </c>
+      <c r="CB21">
+        <f t="shared" si="13"/>
+        <v>76515</v>
+      </c>
+      <c r="CC21">
+        <f t="shared" si="13"/>
+        <v>76516</v>
+      </c>
+      <c r="CD21">
+        <f t="shared" si="13"/>
+        <v>76517</v>
+      </c>
+      <c r="CE21">
+        <f t="shared" si="13"/>
+        <v>76518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI10']=df['dxall'].str.contains(PQI10, regex=True)</v>
+      </c>
+      <c r="B22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E860|E869|E861|E870|A080|A0811|A0819|A082|A0831|A0832|A0839|A084|A088|A09|K5289|K529|N170|N171|N172|N178|N179|N19|N990|2765|27650|27651|27652|2760|00861|00862|00863|00864|00865|00866|00867|00869|0088|0090|0091|0092|0093|5589|5845|5846|5847|5848|5849|586|9975)",re.IGNORECASE)</v>
+      </c>
+      <c r="D22" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" t="s">
+        <v>639</v>
+      </c>
+      <c r="F22" t="s">
+        <v>638</v>
+      </c>
+      <c r="G22" t="s">
+        <v>640</v>
+      </c>
+      <c r="H22" t="s">
+        <v>641</v>
+      </c>
+      <c r="I22" t="s">
+        <v>642</v>
+      </c>
+      <c r="J22" t="s">
+        <v>643</v>
+      </c>
+      <c r="K22" t="s">
+        <v>644</v>
+      </c>
+      <c r="L22" t="s">
+        <v>645</v>
+      </c>
+      <c r="M22" t="s">
+        <v>646</v>
+      </c>
+      <c r="N22" t="s">
+        <v>647</v>
+      </c>
+      <c r="O22" t="s">
+        <v>648</v>
+      </c>
+      <c r="P22" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>650</v>
+      </c>
+      <c r="R22" t="s">
+        <v>651</v>
+      </c>
+      <c r="S22" t="s">
+        <v>652</v>
+      </c>
+      <c r="T22" t="s">
+        <v>653</v>
+      </c>
+      <c r="U22" t="s">
+        <v>924</v>
+      </c>
+      <c r="V22" t="s">
+        <v>654</v>
+      </c>
+      <c r="W22" t="s">
+        <v>655</v>
+      </c>
+      <c r="X22" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA22">
+        <v>2765</v>
+      </c>
+      <c r="AB22">
+        <v>27650</v>
+      </c>
+      <c r="AC22">
+        <v>27651</v>
+      </c>
+      <c r="AD22">
+        <v>27652</v>
+      </c>
+      <c r="AE22">
+        <v>2760</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AS22">
+        <v>5589</v>
+      </c>
+      <c r="AT22">
+        <v>5845</v>
+      </c>
+      <c r="AU22">
+        <v>5846</v>
+      </c>
+      <c r="AV22">
+        <v>5847</v>
+      </c>
+      <c r="AW22">
+        <v>5848</v>
+      </c>
+      <c r="AX22">
+        <v>5849</v>
+      </c>
+      <c r="AY22">
+        <v>586</v>
+      </c>
+      <c r="AZ22">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI10NOT']=df['dxall'].str.contains(PQI10NOT, regex=True)</v>
+      </c>
+      <c r="B23" t="s">
+        <v>925</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:I120|N185|N186|I1311|I132|40301|40311|40391|40402|40403|40412|40413|40492|40493|5855|5856)",re.IGNORECASE)</v>
+      </c>
+      <c r="D23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E23" t="s">
+        <v>661</v>
+      </c>
+      <c r="F23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G23" t="s">
+        <v>660</v>
+      </c>
+      <c r="H23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I23">
+        <v>40301</v>
+      </c>
+      <c r="J23">
+        <v>40311</v>
+      </c>
+      <c r="K23">
+        <v>40391</v>
+      </c>
+      <c r="L23">
+        <v>40402</v>
+      </c>
+      <c r="M23">
+        <v>40403</v>
+      </c>
+      <c r="N23">
+        <v>40412</v>
+      </c>
+      <c r="O23">
+        <v>40413</v>
+      </c>
+      <c r="P23">
+        <v>40492</v>
+      </c>
+      <c r="Q23">
+        <v>40493</v>
+      </c>
+      <c r="R23">
+        <v>5855</v>
+      </c>
+      <c r="S23">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI11']=df['dxall'].str.contains(PQI11, regex=True)</v>
+      </c>
+      <c r="B24" t="s">
+        <v>917</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:J13|J14|J15211|J15212|J153|J154|J157|J159|J160|J168|J180|J181|J188|J189|481|4822|48230|48231|48232|48239|48240|48241|48242|48249|4829|4830|4831|4838|485|486)",re.IGNORECASE)</v>
+      </c>
+      <c r="D24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" t="s">
+        <v>291</v>
+      </c>
+      <c r="M24" t="s">
+        <v>292</v>
+      </c>
+      <c r="N24" t="s">
+        <v>293</v>
+      </c>
+      <c r="O24" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>296</v>
+      </c>
+      <c r="R24">
+        <v>481</v>
+      </c>
+      <c r="S24">
+        <v>4822</v>
+      </c>
+      <c r="T24">
+        <v>48230</v>
+      </c>
+      <c r="U24">
+        <f>T24+1</f>
+        <v>48231</v>
+      </c>
+      <c r="V24">
+        <f>U24+1</f>
+        <v>48232</v>
+      </c>
+      <c r="W24">
+        <f>V24+7</f>
+        <v>48239</v>
+      </c>
+      <c r="X24">
+        <f>W24+1</f>
+        <v>48240</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24:Z24" si="14">X24+1</f>
+        <v>48241</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="14"/>
+        <v>48242</v>
+      </c>
+      <c r="AA24">
+        <f>Z24+7</f>
+        <v>48249</v>
+      </c>
+      <c r="AB24">
+        <v>4829</v>
+      </c>
+      <c r="AC24">
+        <f>AB24+1</f>
+        <v>4830</v>
+      </c>
+      <c r="AD24">
+        <f>AC24+1</f>
+        <v>4831</v>
+      </c>
+      <c r="AE24">
+        <f>AD24+7</f>
+        <v>4838</v>
+      </c>
+      <c r="AF24">
+        <v>485</v>
+      </c>
+      <c r="AG24">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI11NOT']=df['dxall'].str.contains(PQI11NOT, regex=True)</v>
+      </c>
+      <c r="B25" t="s">
+        <v>926</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:D5700|D5701|D5702|D571|D5720|D57211|D57212|D57219|D5740|D57411|D57412|D57419|D5780|D57811|D57812|D57819|28241|28242|28260|28261|28262|28263|28264|28268|28269)",re.IGNORECASE)</v>
+      </c>
+      <c r="D25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" t="s">
+        <v>299</v>
+      </c>
+      <c r="G25" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" t="s">
+        <v>783</v>
+      </c>
+      <c r="I25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J25" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s">
+        <v>304</v>
+      </c>
+      <c r="M25" t="s">
+        <v>305</v>
+      </c>
+      <c r="N25" t="s">
+        <v>306</v>
+      </c>
+      <c r="O25" t="s">
+        <v>307</v>
+      </c>
+      <c r="P25" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>309</v>
+      </c>
+      <c r="R25" t="s">
+        <v>310</v>
+      </c>
+      <c r="S25" t="s">
+        <v>311</v>
+      </c>
+      <c r="T25">
+        <v>28241</v>
+      </c>
+      <c r="U25">
+        <v>28242</v>
+      </c>
+      <c r="V25">
+        <v>28260</v>
+      </c>
+      <c r="W25">
+        <v>28261</v>
+      </c>
+      <c r="X25">
+        <f>W25+1</f>
+        <v>28262</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25:Z25" si="15">X25+1</f>
+        <v>28263</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="15"/>
+        <v>28264</v>
+      </c>
+      <c r="AA25">
+        <v>28268</v>
+      </c>
+      <c r="AB25">
+        <v>28269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI12']=df['dxall'].str.contains(PQI12, regex=True)</v>
+      </c>
+      <c r="B26" t="s">
+        <v>918</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:N10|N119|N12|N151|N159|N16|N2884|N2885|N2886|N3000|N3001|N3090|N3091|59010|59011|5902|5903|59080|59081|5909|5950|5959|5990)",re.IGNORECASE)</v>
+      </c>
+      <c r="D26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" t="s">
+        <v>317</v>
+      </c>
+      <c r="I26" t="s">
+        <v>318</v>
+      </c>
+      <c r="J26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" t="s">
+        <v>321</v>
+      </c>
+      <c r="M26" t="s">
+        <v>322</v>
+      </c>
+      <c r="N26" t="s">
+        <v>323</v>
+      </c>
+      <c r="O26" t="s">
+        <v>324</v>
+      </c>
+      <c r="P26" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q26">
+        <v>59010</v>
+      </c>
+      <c r="R26">
+        <v>59011</v>
+      </c>
+      <c r="S26">
+        <v>5902</v>
+      </c>
+      <c r="T26">
+        <v>5903</v>
+      </c>
+      <c r="U26">
+        <v>59080</v>
+      </c>
+      <c r="V26">
+        <v>59081</v>
+      </c>
+      <c r="W26">
+        <v>5909</v>
+      </c>
+      <c r="X26">
+        <v>5950</v>
+      </c>
+      <c r="Y26">
+        <v>5959</v>
+      </c>
+      <c r="Z26">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI12NOT']=df['dxall'].str.contains(PQI12NOT, regex=True)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>927</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:N110|N111|N118|N119|N1370|N1371|N13721|N13722|N13729|N13731|N13732|N13739|N139|Q600|Q601|Q602|Q603|Q604|Q605|Q606|Q6100|Q6101|Q6102|Q6111|Q6119|Q612|Q613|Q614|Q615|Q618|Q619|Q620|Q6210|Q6211|Q6212|Q622|Q6231|Q6232|Q6239|Q624|Q625|Q6260|Q6261|Q6262|Q6263|Q6269|Q627|Q628|Q630|Q631|Q632|Q633|Q638|Q639|Q6410|Q6411|Q6419|Q642|Q6431|Q6432|Q6433|Q6439|Q645|Q646|Q6470|Q6471|Q6472|Q6473|Q6474|Q6475|Q6479|Q648|Q649|79000|79001|59370|59371|59372|59373|7530|75310|75311|75312|75313|75314|75315|75316|75317|75319|75320|75321|75322|75323|75329|7533|7534|7535|7536|7538|7539)",re.IGNORECASE)</v>
+      </c>
+      <c r="D27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" t="s">
+        <v>331</v>
+      </c>
+      <c r="J27" t="s">
+        <v>332</v>
+      </c>
+      <c r="K27" t="s">
+        <v>333</v>
+      </c>
+      <c r="L27" t="s">
+        <v>334</v>
+      </c>
+      <c r="M27" t="s">
+        <v>335</v>
+      </c>
+      <c r="N27" t="s">
+        <v>336</v>
+      </c>
+      <c r="O27" t="s">
+        <v>337</v>
+      </c>
+      <c r="P27" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>339</v>
+      </c>
+      <c r="R27" t="s">
+        <v>340</v>
+      </c>
+      <c r="S27" t="s">
+        <v>341</v>
+      </c>
+      <c r="T27" t="s">
+        <v>342</v>
+      </c>
+      <c r="U27" t="s">
+        <v>343</v>
+      </c>
+      <c r="V27" t="s">
+        <v>344</v>
+      </c>
+      <c r="W27" t="s">
+        <v>345</v>
+      </c>
+      <c r="X27" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>368</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>371</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>378</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>381</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>383</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>385</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>387</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>389</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>390</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>391</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>392</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>393</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>394</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>395</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>396</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>399</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>400</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>401</v>
+      </c>
+      <c r="BY27">
+        <v>79000</v>
+      </c>
+      <c r="BZ27">
+        <f>BY27+1</f>
+        <v>79001</v>
+      </c>
+      <c r="CA27">
+        <v>59370</v>
+      </c>
+      <c r="CB27">
+        <f>CA27+1</f>
+        <v>59371</v>
+      </c>
+      <c r="CC27">
+        <f t="shared" ref="CC27:CD27" si="16">CB27+1</f>
+        <v>59372</v>
+      </c>
+      <c r="CD27">
+        <f t="shared" si="16"/>
+        <v>59373</v>
+      </c>
+      <c r="CE27">
+        <v>7530</v>
+      </c>
+      <c r="CF27">
+        <v>75310</v>
+      </c>
+      <c r="CG27">
+        <f>CF27+1</f>
+        <v>75311</v>
+      </c>
+      <c r="CH27">
+        <f t="shared" ref="CH27:CN27" si="17">CG27+1</f>
+        <v>75312</v>
+      </c>
+      <c r="CI27">
+        <f t="shared" si="17"/>
+        <v>75313</v>
+      </c>
+      <c r="CJ27">
+        <f t="shared" si="17"/>
+        <v>75314</v>
+      </c>
+      <c r="CK27">
+        <f t="shared" si="17"/>
+        <v>75315</v>
+      </c>
+      <c r="CL27">
+        <f t="shared" si="17"/>
+        <v>75316</v>
+      </c>
+      <c r="CM27">
+        <f t="shared" si="17"/>
+        <v>75317</v>
+      </c>
+      <c r="CN27">
+        <f>CM27+2</f>
+        <v>75319</v>
+      </c>
+      <c r="CO27">
+        <f>CN27+1</f>
+        <v>75320</v>
+      </c>
+      <c r="CP27">
+        <f t="shared" ref="CP27:CR27" si="18">CO27+1</f>
+        <v>75321</v>
+      </c>
+      <c r="CQ27">
+        <f t="shared" si="18"/>
+        <v>75322</v>
+      </c>
+      <c r="CR27">
+        <f t="shared" si="18"/>
+        <v>75323</v>
+      </c>
+      <c r="CS27">
+        <f>CR27+6</f>
+        <v>75329</v>
+      </c>
+      <c r="CT27">
+        <v>7533</v>
+      </c>
+      <c r="CU27">
+        <v>7534</v>
+      </c>
+      <c r="CV27">
+        <v>7535</v>
+      </c>
+      <c r="CW27">
+        <v>7536</v>
+      </c>
+      <c r="CX27">
+        <v>7538</v>
+      </c>
+      <c r="CY27">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI14']=df['dxall'].str.contains(PQI14, regex=True)</v>
+      </c>
+      <c r="B28" t="s">
+        <v>919</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E1065|E1165|E10649|E11649|25002|25003)",re.IGNORECASE)</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>403</v>
+      </c>
+      <c r="G28" t="s">
+        <v>404</v>
+      </c>
+      <c r="H28">
+        <v>25002</v>
+      </c>
+      <c r="I28">
+        <v>25003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI15']=df['dxall'].str.contains(PQI15, regex=True)</v>
+      </c>
+      <c r="B29" t="s">
+        <v>920</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:J4521|J4522|J4531|J4532|J4541|J4542|J4551|J4552|J45901|J45902|J45990|J45991|J45998|49300|49301|49302|49310|49311|49312|49320|49321|49322|49380|49381|49382|49390|49391|49392)",re.IGNORECASE)</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29">
+        <v>49300</v>
+      </c>
+      <c r="R29">
+        <f>Q29+1</f>
+        <v>49301</v>
+      </c>
+      <c r="S29">
+        <f>R29+1</f>
+        <v>49302</v>
+      </c>
+      <c r="T29">
+        <f>Q29+10</f>
+        <v>49310</v>
+      </c>
+      <c r="U29">
+        <f>T29+1</f>
+        <v>49311</v>
+      </c>
+      <c r="V29">
+        <f>U29+1</f>
+        <v>49312</v>
+      </c>
+      <c r="W29">
+        <f>T29+10</f>
+        <v>49320</v>
+      </c>
+      <c r="X29">
+        <f>W29+1</f>
+        <v>49321</v>
+      </c>
+      <c r="Y29">
+        <f>X29+1</f>
+        <v>49322</v>
+      </c>
+      <c r="Z29">
+        <f>W29+60</f>
+        <v>49380</v>
+      </c>
+      <c r="AA29">
+        <f>Z29+1</f>
+        <v>49381</v>
+      </c>
+      <c r="AB29">
+        <f>AA29+1</f>
+        <v>49382</v>
+      </c>
+      <c r="AC29">
+        <f>Z29+10</f>
+        <v>49390</v>
+      </c>
+      <c r="AD29">
+        <f>AC29+1</f>
+        <v>49391</v>
+      </c>
+      <c r="AE29">
+        <f>AD29+1</f>
+        <v>49392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI15NOT']=df['dxall'].str.contains(PQI15NOT, regex=True)</v>
+      </c>
+      <c r="B30" t="s">
+        <v>928</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E840|E8411|E8419|E848|E849|J8483|J84841|J84842|J84843|J84848|P270|P271|P278|P279|Q254|Q311|Q312|Q313|Q315|Q318|Q319|Q320|Q321|Q322|Q323|Q324|Q330|Q331|Q332|Q333|Q334|Q335|Q336|Q338|Q339|Q340|Q341|Q348|Q349|Q390|Q391|Q392|Q393|Q394|Q893|27700|27701|27702|27703|27709|51661|51662|51663|51664|51669|74721|7483|7484|7485|74860|74861|74869|7488|7489|7503|7593|7707)",re.IGNORECASE)</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" t="s">
+        <v>119</v>
+      </c>
+      <c r="P30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>121</v>
+      </c>
+      <c r="R30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T30" t="s">
+        <v>124</v>
+      </c>
+      <c r="U30" t="s">
+        <v>125</v>
+      </c>
+      <c r="V30" t="s">
+        <v>126</v>
+      </c>
+      <c r="W30" t="s">
+        <v>127</v>
+      </c>
+      <c r="X30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW30">
+        <v>27700</v>
+      </c>
+      <c r="AX30">
+        <f>AW30+1</f>
+        <v>27701</v>
+      </c>
+      <c r="AY30">
+        <f>AX30+1</f>
+        <v>27702</v>
+      </c>
+      <c r="AZ30">
+        <f>AY30+1</f>
+        <v>27703</v>
+      </c>
+      <c r="BA30">
+        <f>AZ30+6</f>
+        <v>27709</v>
+      </c>
+      <c r="BB30">
+        <v>51661</v>
+      </c>
+      <c r="BC30">
+        <f>BB30+1</f>
+        <v>51662</v>
+      </c>
+      <c r="BD30">
+        <f>BC30+1</f>
+        <v>51663</v>
+      </c>
+      <c r="BE30">
+        <f>BD30+1</f>
+        <v>51664</v>
+      </c>
+      <c r="BF30">
+        <f>BE30+5</f>
+        <v>51669</v>
+      </c>
+      <c r="BG30">
+        <v>74721</v>
+      </c>
+      <c r="BH30">
+        <v>7483</v>
+      </c>
+      <c r="BI30">
+        <v>7484</v>
+      </c>
+      <c r="BJ30">
+        <v>7485</v>
+      </c>
+      <c r="BK30">
+        <v>74860</v>
+      </c>
+      <c r="BL30">
+        <v>74861</v>
+      </c>
+      <c r="BM30">
+        <v>74869</v>
+      </c>
+      <c r="BN30">
+        <v>7488</v>
+      </c>
+      <c r="BO30">
+        <v>7489</v>
+      </c>
+      <c r="BP30">
+        <v>7503</v>
+      </c>
+      <c r="BQ30">
+        <v>7593</v>
+      </c>
+      <c r="BR30">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI16Proc']=df['dxall'].str.contains(PQI16Proc, regex=True)</v>
+      </c>
+      <c r="B31" t="s">
+        <v>929</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:0Y620ZZ|0Y630ZZ|0Y640ZZ|0Y670ZZ|0Y680ZZ|0Y6C0Z1|0Y6C0Z2|0Y6C0Z3|0Y6D0Z1|0Y6D0Z2|0Y6D0Z3|0Y6F0ZZ|0Y6G0ZZ|0Y6H0Z1|0Y6H0Z2|0Y6H0Z3|0Y6J0Z1|0Y6J0Z2|0Y6J0Z3|0Y6M0Z0|0Y6M0Z4|0Y6M0Z5|0Y6M0Z6|0Y6M0Z7|0Y6M0Z8|0Y6M0Z9|0Y6M0ZB|0Y6M0ZC|0Y6M0ZD|0Y6M0ZF|0Y6N0Z0|0Y6N0Z4|0Y6N0Z5|0Y6N0Z6|0Y6N0Z7|0Y6N0Z8|0Y6N0Z9|0Y6N0ZB|0Y6N0ZC|0Y6N0ZD|0Y6N0ZF|8410|8412|8413|8418|8415|8416|8417|8418|8419)",re.IGNORECASE)</v>
+      </c>
+      <c r="D31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G31" t="s">
+        <v>448</v>
+      </c>
+      <c r="H31" t="s">
+        <v>449</v>
+      </c>
+      <c r="I31" t="s">
+        <v>450</v>
+      </c>
+      <c r="J31" t="s">
+        <v>451</v>
+      </c>
+      <c r="K31" t="s">
+        <v>452</v>
+      </c>
+      <c r="L31" t="s">
+        <v>453</v>
+      </c>
+      <c r="M31" t="s">
+        <v>454</v>
+      </c>
+      <c r="N31" t="s">
+        <v>455</v>
+      </c>
+      <c r="O31" t="s">
+        <v>456</v>
+      </c>
+      <c r="P31" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>458</v>
+      </c>
+      <c r="R31" t="s">
+        <v>459</v>
+      </c>
+      <c r="S31" t="s">
+        <v>460</v>
+      </c>
+      <c r="T31" t="s">
+        <v>461</v>
+      </c>
+      <c r="U31" t="s">
+        <v>462</v>
+      </c>
+      <c r="V31" t="s">
+        <v>463</v>
+      </c>
+      <c r="W31" t="s">
+        <v>464</v>
+      </c>
+      <c r="X31" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>480</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>481</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>485</v>
+      </c>
+      <c r="AS31">
+        <v>8410</v>
+      </c>
+      <c r="AT31">
+        <v>8412</v>
+      </c>
+      <c r="AU31">
+        <v>8413</v>
+      </c>
+      <c r="AV31">
+        <v>8418</v>
+      </c>
+      <c r="AW31">
+        <v>8415</v>
+      </c>
+      <c r="AX31">
+        <v>8416</v>
+      </c>
+      <c r="AY31">
+        <v>8417</v>
+      </c>
+      <c r="AZ31">
+        <v>8418</v>
+      </c>
+      <c r="BA31">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:165" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI16AND']=df['dxall'].str.contains(PQI16AND, regex=True)</v>
+      </c>
+      <c r="B32" t="s">
+        <v>930</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:E1010|E1011|E1021|E1022|E1029|E10311|E10319|E10321|E10329|E10331|E10339|E10341|E10349|E10351|E10359|E1036|E1039|E1040|E1041|E1042|E1043|E1044|E1049|E1051|E1052|E1059|E10610|E10618|E10620|E10621|E10622|E10628|E10630|E10638|E10641|E10649|E1065|E1069|E108|E109|E1100|E1101|E1121|E1122|E1129|E11311|E11319|E11321|E11329|E11331|E11339|E11341|E11349|E11351|E11359|E1136|E1139|E1140|E1141|E1142|E1143|E1144|E1149|E1151|E1152|E1159|E11610|E11618|E11620|E11621|E11622|E11628|E11630|E11638|E11641|E11649|E1165|E1169|E118|E119|E1300|E1301|E1310|E1311|E1321|E1322|E1329|E13311|E13319|E13321|E13329|E13331|E13339|E13341|E13349|E13351|E13359|E1336|E1339|E1340|E1341|E1342|E1343|E1344|E1349|E1351|E1352|E1359|E13610|E13618|E13620|E13621|E13622|E13628|E13630|E13638|E13641|E13649|E1365|E1369|E138|E139|25000|25001|25002|25003|25010|25011|25012|25013|25020|25021|25022|25023|25030|25031|25032|25033|25050|25051|25052|25053|25060|25061|25062|25063|25070|25071|25072|25073|25080|25081|25082|25083|25090|25091|25092|25093|25040|25041|25042|25043)",re.IGNORECASE)</v>
+      </c>
+      <c r="D32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" t="s">
+        <v>28</v>
+      </c>
+      <c r="X32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>488</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>404</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>489</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>490</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>491</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>492</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>493</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>494</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>495</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>496</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>497</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>498</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>499</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>500</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>501</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>502</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>503</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>504</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>505</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>506</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>507</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>508</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>509</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>510</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>511</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>512</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>513</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>514</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>515</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>516</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>517</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>520</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>521</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>522</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>523</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>524</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>525</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>527</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>528</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>529</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>530</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>531</v>
+      </c>
+      <c r="DV32">
+        <v>25000</v>
+      </c>
+      <c r="DW32">
+        <f>DV32+1</f>
+        <v>25001</v>
+      </c>
+      <c r="DX32">
+        <f>DW32+1</f>
+        <v>25002</v>
+      </c>
+      <c r="DY32">
+        <f>DX32+1</f>
+        <v>25003</v>
+      </c>
+      <c r="DZ32">
+        <f>DY32+7</f>
+        <v>25010</v>
+      </c>
+      <c r="EA32">
+        <f t="shared" ref="EA32:ET32" si="19">DZ32+1</f>
+        <v>25011</v>
+      </c>
+      <c r="EB32">
+        <f t="shared" si="19"/>
+        <v>25012</v>
+      </c>
+      <c r="EC32">
+        <f t="shared" si="19"/>
+        <v>25013</v>
+      </c>
+      <c r="ED32">
+        <f t="shared" ref="ED32:ET32" si="20">EC32+7</f>
+        <v>25020</v>
+      </c>
+      <c r="EE32">
+        <f t="shared" ref="EE32:ET32" si="21">ED32+1</f>
+        <v>25021</v>
+      </c>
+      <c r="EF32">
+        <f t="shared" si="21"/>
+        <v>25022</v>
+      </c>
+      <c r="EG32">
+        <f t="shared" si="21"/>
+        <v>25023</v>
+      </c>
+      <c r="EH32">
+        <f t="shared" ref="EH32:ET32" si="22">EG32+7</f>
+        <v>25030</v>
+      </c>
+      <c r="EI32">
+        <f t="shared" ref="EI32:ET32" si="23">EH32+1</f>
+        <v>25031</v>
+      </c>
+      <c r="EJ32">
+        <f t="shared" si="23"/>
+        <v>25032</v>
+      </c>
+      <c r="EK32">
+        <f t="shared" si="23"/>
+        <v>25033</v>
+      </c>
+      <c r="EL32">
+        <f>EK32+17</f>
+        <v>25050</v>
+      </c>
+      <c r="EM32">
+        <f t="shared" ref="EM32:ET32" si="24">EL32+1</f>
+        <v>25051</v>
+      </c>
+      <c r="EN32">
+        <f t="shared" si="24"/>
+        <v>25052</v>
+      </c>
+      <c r="EO32">
+        <f t="shared" si="24"/>
+        <v>25053</v>
+      </c>
+      <c r="EP32">
+        <f t="shared" ref="EP32:ET32" si="25">EO32+7</f>
+        <v>25060</v>
+      </c>
+      <c r="EQ32">
+        <f t="shared" ref="EQ32:FK32" si="26">EP32+1</f>
+        <v>25061</v>
+      </c>
+      <c r="ER32">
+        <f t="shared" si="26"/>
+        <v>25062</v>
+      </c>
+      <c r="ES32">
+        <f t="shared" si="26"/>
+        <v>25063</v>
+      </c>
+      <c r="ET32">
+        <f t="shared" ref="ET32" si="27">ES32+7</f>
+        <v>25070</v>
+      </c>
+      <c r="EU32">
+        <f t="shared" si="26"/>
+        <v>25071</v>
+      </c>
+      <c r="EV32">
+        <f t="shared" si="26"/>
+        <v>25072</v>
+      </c>
+      <c r="EW32">
+        <f t="shared" si="26"/>
+        <v>25073</v>
+      </c>
+      <c r="EX32">
+        <f t="shared" ref="EX32:FK32" si="28">EW32+7</f>
+        <v>25080</v>
+      </c>
+      <c r="EY32">
+        <f t="shared" si="26"/>
+        <v>25081</v>
+      </c>
+      <c r="EZ32">
+        <f t="shared" si="26"/>
+        <v>25082</v>
+      </c>
+      <c r="FA32">
+        <f t="shared" si="26"/>
+        <v>25083</v>
+      </c>
+      <c r="FB32">
+        <f t="shared" si="28"/>
+        <v>25090</v>
+      </c>
+      <c r="FC32">
+        <f t="shared" si="26"/>
+        <v>25091</v>
+      </c>
+      <c r="FD32">
+        <f t="shared" si="26"/>
+        <v>25092</v>
+      </c>
+      <c r="FE32">
+        <f t="shared" si="26"/>
+        <v>25093</v>
+      </c>
+      <c r="FF32">
+        <v>25040</v>
+      </c>
+      <c r="FG32">
+        <f t="shared" si="26"/>
+        <v>25041</v>
+      </c>
+      <c r="FH32">
+        <f t="shared" si="26"/>
+        <v>25042</v>
+      </c>
+      <c r="FI32">
+        <f t="shared" si="26"/>
+        <v>25043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>df['PQI16NOTPROC']=df['dxall'].str.contains(PQI16NOTPROC, regex=True)</v>
+      </c>
+      <c r="B33" t="s">
+        <v>932</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:S78011A|S78012A|S78019A|S78021A|S78022A|S78029A|S78111A|S78112A|S78119A|S78121A|S78122A|S78129A|S78911A|S78912A|S78919A|S78921A|S78922A|S78929A|S88011A|S88012A|S88019A|S88021A|S88022A|S88029A|S88111A|S88112A|S88119A|S88121A|S88122A|S88129A|S88911A|S88912A|S88919A|S88921A|S88922A|S88929A|S98011A|S98012A|S98019A|S98021A|S98022A|S98029A|S98111A|S98112A|S98119A|S98121A|S98122A|S98129A|S98131A|S98132A|S98139A|S98141A|S98142A|S98149A|S98211A|S98212A|S98219A|S98221A|S98222A|S98229A|S98311A|S98312A|S98319A|S98321A|S98322A|S98329A|S98911A|S98912A|S98919A|S98921A|S98922A|S98929A|8950|8951|8960|8961|8962|8963|8970|8971|8972|8973|8974|8975|8976|8977)",re.IGNORECASE)</v>
+      </c>
+      <c r="D33" t="s">
+        <v>532</v>
+      </c>
+      <c r="E33" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" t="s">
+        <v>534</v>
+      </c>
+      <c r="G33" t="s">
+        <v>535</v>
+      </c>
+      <c r="H33" t="s">
+        <v>536</v>
+      </c>
+      <c r="I33" t="s">
+        <v>537</v>
+      </c>
+      <c r="J33" t="s">
+        <v>538</v>
+      </c>
+      <c r="K33" t="s">
+        <v>539</v>
+      </c>
+      <c r="L33" t="s">
+        <v>540</v>
+      </c>
+      <c r="M33" t="s">
+        <v>541</v>
+      </c>
+      <c r="N33" t="s">
+        <v>542</v>
+      </c>
+      <c r="O33" t="s">
+        <v>543</v>
+      </c>
+      <c r="P33" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>545</v>
+      </c>
+      <c r="R33" t="s">
+        <v>546</v>
+      </c>
+      <c r="S33" t="s">
+        <v>547</v>
+      </c>
+      <c r="T33" t="s">
+        <v>548</v>
+      </c>
+      <c r="U33" t="s">
+        <v>549</v>
+      </c>
+      <c r="V33" t="s">
+        <v>550</v>
+      </c>
+      <c r="W33" t="s">
+        <v>551</v>
+      </c>
+      <c r="X33" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>562</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>563</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>564</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>565</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>567</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>569</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>570</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>571</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>572</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>573</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>575</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>577</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>578</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>579</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>580</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>581</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>582</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>583</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>584</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>585</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>586</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>587</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>588</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>589</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>931</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>590</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>591</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>592</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>593</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>594</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>595</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>596</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>597</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>598</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>599</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>600</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>601</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>602</v>
+      </c>
+      <c r="BX33">
+        <v>8950</v>
+      </c>
+      <c r="BY33">
+        <v>8951</v>
+      </c>
+      <c r="BZ33">
+        <v>8960</v>
+      </c>
+      <c r="CA33">
+        <v>8961</v>
+      </c>
+      <c r="CB33">
+        <v>8962</v>
+      </c>
+      <c r="CC33">
+        <f>CB33+1</f>
+        <v>8963</v>
+      </c>
+      <c r="CD33">
+        <v>8970</v>
+      </c>
+      <c r="CE33">
+        <f>CD33+1</f>
+        <v>8971</v>
+      </c>
+      <c r="CF33">
+        <f t="shared" ref="CF33:CT33" si="29">CE33+1</f>
+        <v>8972</v>
+      </c>
+      <c r="CG33">
+        <f t="shared" si="29"/>
+        <v>8973</v>
+      </c>
+      <c r="CH33">
+        <f t="shared" si="29"/>
+        <v>8974</v>
+      </c>
+      <c r="CI33">
+        <f t="shared" si="29"/>
+        <v>8975</v>
+      </c>
+      <c r="CJ33">
+        <f t="shared" si="29"/>
+        <v>8976</v>
+      </c>
+      <c r="CK33">
+        <f t="shared" si="29"/>
+        <v>8977</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D36:D217">
+    <sortCondition ref="D217"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8BBBA-EC1C-40A2-B3B5-398EE356E68F}">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
+        <v>df['CCI01']=df['dxall'].str.contains(CCI01, regex=True)</v>
+      </c>
+      <c r="B12" t="s">
+        <v>934</v>
+      </c>
+      <c r="C12" t="str">
+        <f>$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D12:JS12)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:410|412)",re.IGNORECASE)</v>
+      </c>
+      <c r="D12">
+        <v>410</v>
+      </c>
+      <c r="E12">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A29" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
+        <v>df['CCI02']=df['dxall'].str.contains(CCI02, regex=True)</v>
+      </c>
+      <c r="B13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C29" si="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D13:JS13)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:428)",re.IGNORECASE)</v>
+      </c>
+      <c r="D13">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI03']=df['dxall'].str.contains(CCI03, regex=True)</v>
+      </c>
+      <c r="B14" t="s">
+        <v>937</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:4439|441|785|v434)",re.IGNORECASE)</v>
+      </c>
+      <c r="D14">
+        <v>4439</v>
+      </c>
+      <c r="E14">
+        <v>441</v>
+      </c>
+      <c r="F14">
+        <v>785</v>
+      </c>
+      <c r="G14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI03p']=df['dxall'].str.contains(CCI03p, regex=True)</v>
+      </c>
+      <c r="B15" t="s">
+        <v>946</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:3848)",re.IGNORECASE)</v>
+      </c>
+      <c r="D15">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI04']=df['dxall'].str.contains(CCI04, regex=True)</v>
+      </c>
+      <c r="B16" t="s">
+        <v>938</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:430|431|432|433|434|435|436|437|438)",re.IGNORECASE)</v>
+      </c>
+      <c r="D16">
+        <v>430</v>
+      </c>
+      <c r="E16">
+        <v>431</v>
+      </c>
+      <c r="F16">
+        <v>432</v>
+      </c>
+      <c r="G16">
+        <v>433</v>
+      </c>
+      <c r="H16">
+        <v>434</v>
+      </c>
+      <c r="I16">
+        <v>435</v>
+      </c>
+      <c r="J16">
+        <v>436</v>
+      </c>
+      <c r="K16">
+        <v>437</v>
+      </c>
+      <c r="L16">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI05']=df['dxall'].str.contains(CCI05, regex=True)</v>
+      </c>
+      <c r="B17" t="s">
+        <v>939</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:290)",re.IGNORECASE)</v>
+      </c>
+      <c r="D17">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI06']=df['dxall'].str.contains(CCI06, regex=True)</v>
+      </c>
+      <c r="B18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:49|501|502|503|504|505|5064)",re.IGNORECASE)</v>
+      </c>
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>501</v>
+      </c>
+      <c r="F18">
+        <v>502</v>
+      </c>
+      <c r="G18">
+        <v>503</v>
+      </c>
+      <c r="H18">
+        <v>504</v>
+      </c>
+      <c r="I18">
+        <v>505</v>
+      </c>
+      <c r="J18">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI07']=df['dxall'].str.contains(CCI07, regex=True)</v>
+      </c>
+      <c r="B19" t="s">
+        <v>941</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:7100|7101|7104|7140|7141|7142|71481|725)",re.IGNORECASE)</v>
+      </c>
+      <c r="D19">
+        <v>7100</v>
+      </c>
+      <c r="E19">
+        <v>7101</v>
+      </c>
+      <c r="F19">
+        <v>7104</v>
+      </c>
+      <c r="G19">
+        <v>7140</v>
+      </c>
+      <c r="H19">
+        <v>7141</v>
+      </c>
+      <c r="I19">
+        <v>7142</v>
+      </c>
+      <c r="J19">
+        <v>71481</v>
+      </c>
+      <c r="K19">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI08']=df['dxall'].str.contains(CCI08, regex=True)</v>
+      </c>
+      <c r="B20" t="s">
+        <v>942</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:531|532|733|734)",re.IGNORECASE)</v>
+      </c>
+      <c r="D20">
+        <v>531</v>
+      </c>
+      <c r="E20">
+        <v>532</v>
+      </c>
+      <c r="F20">
+        <v>733</v>
+      </c>
+      <c r="G20">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI09']=df['dxall'].str.contains(CCI09, regex=True)</v>
+      </c>
+      <c r="B21" t="s">
+        <v>943</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:5712|5714|5715|5716)",re.IGNORECASE)</v>
+      </c>
+      <c r="D21">
+        <v>5712</v>
+      </c>
+      <c r="E21">
+        <v>5714</v>
+      </c>
+      <c r="F21">
+        <v>5715</v>
+      </c>
+      <c r="G21">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI10']=df['dxall'].str.contains(CCI10, regex=True)</v>
+      </c>
+      <c r="B22" t="s">
+        <v>944</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2500|2501|2502|2503|2507)",re.IGNORECASE)</v>
+      </c>
+      <c r="D22">
+        <v>2500</v>
+      </c>
+      <c r="E22">
+        <v>2501</v>
+      </c>
+      <c r="F22">
+        <v>2502</v>
+      </c>
+      <c r="G22">
+        <v>2503</v>
+      </c>
+      <c r="H22">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI11']=df['dxall'].str.contains(CCI11, regex=True)</v>
+      </c>
+      <c r="B23" t="s">
+        <v>945</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2504|2505|2506)",re.IGNORECASE)</v>
+      </c>
+      <c r="D23">
+        <v>2504</v>
+      </c>
+      <c r="E23">
+        <v>2505</v>
+      </c>
+      <c r="F23">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI12']=df['dxall'].str.contains(CCI12, regex=True)</v>
+      </c>
+      <c r="B24" t="s">
+        <v>947</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:3441|342)",re.IGNORECASE)</v>
+      </c>
+      <c r="D24">
+        <v>3441</v>
+      </c>
+      <c r="E24">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI13']=df['dxall'].str.contains(CCI13, regex=True)</v>
+      </c>
+      <c r="B25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:582|5830|5831|5832|5833|5834|5835|5836|5837|585|586|588)",re.IGNORECASE)</v>
+      </c>
+      <c r="D25">
+        <v>582</v>
+      </c>
+      <c r="E25">
+        <v>5830</v>
+      </c>
+      <c r="F25">
+        <v>5831</v>
+      </c>
+      <c r="G25">
+        <v>5832</v>
+      </c>
+      <c r="H25">
+        <v>5833</v>
+      </c>
+      <c r="I25">
+        <v>5834</v>
+      </c>
+      <c r="J25">
+        <v>5835</v>
+      </c>
+      <c r="K25">
+        <v>5836</v>
+      </c>
+      <c r="L25">
+        <v>5837</v>
+      </c>
+      <c r="M25">
+        <v>585</v>
+      </c>
+      <c r="N25">
+        <v>586</v>
+      </c>
+      <c r="O25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI14']=df['dxall'].str.contains(CCI14, regex=True)</v>
+      </c>
+      <c r="B26" t="s">
+        <v>949</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:14|15|16|170|171|172|174|175|176|177|178|179|18|190|191|192|193|194|1950|1951|1592|1953|1954|1955|1956|1957|1958|200|201|202|203|204|205|206|207|208)",re.IGNORECASE)</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>170</v>
+      </c>
+      <c r="H26">
+        <v>171</v>
+      </c>
+      <c r="I26">
+        <v>172</v>
+      </c>
+      <c r="J26">
+        <v>174</v>
+      </c>
+      <c r="K26">
+        <v>175</v>
+      </c>
+      <c r="L26">
+        <v>176</v>
+      </c>
+      <c r="M26">
+        <v>177</v>
+      </c>
+      <c r="N26">
+        <v>178</v>
+      </c>
+      <c r="O26">
+        <v>179</v>
+      </c>
+      <c r="P26">
+        <v>18</v>
+      </c>
+      <c r="Q26">
+        <v>190</v>
+      </c>
+      <c r="R26">
+        <v>191</v>
+      </c>
+      <c r="S26">
+        <v>192</v>
+      </c>
+      <c r="T26">
+        <v>193</v>
+      </c>
+      <c r="U26">
+        <v>194</v>
+      </c>
+      <c r="V26">
+        <v>1950</v>
+      </c>
+      <c r="W26">
+        <v>1951</v>
+      </c>
+      <c r="X26">
+        <v>1592</v>
+      </c>
+      <c r="Y26">
+        <v>1953</v>
+      </c>
+      <c r="Z26">
+        <v>1954</v>
+      </c>
+      <c r="AA26">
+        <v>1955</v>
+      </c>
+      <c r="AB26">
+        <v>1956</v>
+      </c>
+      <c r="AC26">
+        <v>1957</v>
+      </c>
+      <c r="AD26">
+        <v>1958</v>
+      </c>
+      <c r="AE26">
+        <v>200</v>
+      </c>
+      <c r="AF26">
+        <v>201</v>
+      </c>
+      <c r="AG26">
+        <v>202</v>
+      </c>
+      <c r="AH26">
+        <v>203</v>
+      </c>
+      <c r="AI26">
+        <v>204</v>
+      </c>
+      <c r="AJ26">
+        <v>205</v>
+      </c>
+      <c r="AK26">
+        <v>206</v>
+      </c>
+      <c r="AL26">
+        <v>207</v>
+      </c>
+      <c r="AM26">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI15']=df['dxall'].str.contains(CCI15, regex=True)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>950</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:4560|4561|45620|45621|5722|5723|5724|5725|5726|5727|5728)",re.IGNORECASE)</v>
+      </c>
+      <c r="D27">
+        <v>4560</v>
+      </c>
+      <c r="E27">
+        <v>4561</v>
+      </c>
+      <c r="F27">
+        <v>45620</v>
+      </c>
+      <c r="G27">
+        <v>45621</v>
+      </c>
+      <c r="H27">
+        <v>5722</v>
+      </c>
+      <c r="I27">
+        <v>5723</v>
+      </c>
+      <c r="J27">
+        <v>5724</v>
+      </c>
+      <c r="K27">
+        <v>5725</v>
+      </c>
+      <c r="L27">
+        <v>5726</v>
+      </c>
+      <c r="M27">
+        <v>5727</v>
+      </c>
+      <c r="N27">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI16']=df['dxall'].str.contains(CCI16, regex=True)</v>
+      </c>
+      <c r="B28" t="s">
+        <v>951</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:196|197|198|1990|1991)",re.IGNORECASE)</v>
+      </c>
+      <c r="D28">
+        <v>196</v>
+      </c>
+      <c r="E28">
+        <v>197</v>
+      </c>
+      <c r="F28">
+        <v>198</v>
+      </c>
+      <c r="G28">
+        <v>1990</v>
+      </c>
+      <c r="H28">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>df['CCI17']=df['dxall'].str.contains(CCI17, regex=True)</v>
+      </c>
+      <c r="B29" t="s">
+        <v>952</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:42|43|44)",re.IGNORECASE)</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49211974-B40D-4E45-9206-795C0F96E836}">
+  <dimension ref="A1:AK42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
+        <v>df['ELX01']=df['dxall'].str.contains(ELX01, regex=True)</v>
+      </c>
+      <c r="B12" t="s">
+        <v>953</v>
+      </c>
+      <c r="C12" t="str">
+        <f>$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D12:JS12)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:39891|40211|40291|41411|40413|40491|40493|428)",re.IGNORECASE)</v>
+      </c>
+      <c r="D12">
+        <v>39891</v>
+      </c>
+      <c r="E12">
+        <v>40211</v>
+      </c>
+      <c r="F12">
+        <v>40291</v>
+      </c>
+      <c r="G12">
+        <v>41411</v>
+      </c>
+      <c r="H12">
+        <v>40413</v>
+      </c>
+      <c r="I12">
+        <v>40491</v>
+      </c>
+      <c r="J12">
+        <v>40493</v>
+      </c>
+      <c r="K12">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A42" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
+        <v>df['ELX02']=df['dxall'].str.contains(ELX02, regex=True)</v>
+      </c>
+      <c r="B13" t="s">
+        <v>954</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:C42" si="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D13:JS13)&amp;$C$3</f>
+        <v>=re.compile("\^+(?:42610|42611|42613|4262|4263|4264|42650|42651|42652|42653|4266|4267|4268|4270|4272|42731|42760|4279|7850|V450|V533)",re.IGNORECASE)</v>
+      </c>
+      <c r="D13">
+        <v>42610</v>
+      </c>
+      <c r="E13">
+        <v>42611</v>
+      </c>
+      <c r="F13">
+        <v>42613</v>
+      </c>
+      <c r="G13">
+        <v>4262</v>
+      </c>
+      <c r="H13">
+        <v>4263</v>
+      </c>
+      <c r="I13">
+        <v>4264</v>
+      </c>
+      <c r="J13">
+        <v>42650</v>
+      </c>
+      <c r="K13">
+        <v>42651</v>
+      </c>
+      <c r="L13">
+        <v>42652</v>
+      </c>
+      <c r="M13">
+        <v>42653</v>
+      </c>
+      <c r="N13">
+        <v>4266</v>
+      </c>
+      <c r="O13">
+        <v>4267</v>
+      </c>
+      <c r="P13">
+        <v>4268</v>
+      </c>
+      <c r="Q13">
+        <v>4270</v>
+      </c>
+      <c r="R13">
+        <v>4272</v>
+      </c>
+      <c r="S13">
+        <v>42731</v>
+      </c>
+      <c r="T13">
+        <v>42760</v>
+      </c>
+      <c r="U13">
+        <v>4279</v>
+      </c>
+      <c r="V13">
+        <v>7850</v>
+      </c>
+      <c r="W13" t="s">
+        <v>976</v>
+      </c>
+      <c r="X13" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX03']=df['dxall'].str.contains(ELX03, regex=True)</v>
+      </c>
+      <c r="B14" t="s">
+        <v>955</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:0932|394|395|396|3970|3971|4240|4241|4242|4243|4244|4245|4246|4247|4248|42490|42491|7463|7464|7465|7466|V422|V433)",re.IGNORECASE)</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E14">
+        <v>394</v>
+      </c>
+      <c r="F14">
+        <v>395</v>
+      </c>
+      <c r="G14">
+        <v>396</v>
+      </c>
+      <c r="H14">
+        <v>3970</v>
+      </c>
+      <c r="I14">
+        <v>3971</v>
+      </c>
+      <c r="J14">
+        <v>4240</v>
+      </c>
+      <c r="K14">
+        <v>4241</v>
+      </c>
+      <c r="L14">
+        <v>4242</v>
+      </c>
+      <c r="M14">
+        <v>4243</v>
+      </c>
+      <c r="N14">
+        <v>4244</v>
+      </c>
+      <c r="O14">
+        <v>4245</v>
+      </c>
+      <c r="P14">
+        <v>4246</v>
+      </c>
+      <c r="Q14">
+        <v>4247</v>
+      </c>
+      <c r="R14">
+        <v>4248</v>
+      </c>
+      <c r="S14">
+        <v>42490</v>
+      </c>
+      <c r="T14">
+        <v>42491</v>
+      </c>
+      <c r="U14">
+        <v>7463</v>
+      </c>
+      <c r="V14">
+        <v>7464</v>
+      </c>
+      <c r="W14">
+        <v>7465</v>
+      </c>
+      <c r="X14">
+        <v>7466</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>979</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX04']=df['dxall'].str.contains(ELX04, regex=True)</v>
+      </c>
+      <c r="B15" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:416|4179)",re.IGNORECASE)</v>
+      </c>
+      <c r="D15">
+        <v>416</v>
+      </c>
+      <c r="E15">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX05']=df['dxall'].str.contains(ELX05, regex=True)</v>
+      </c>
+      <c r="B16" t="s">
+        <v>957</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:440|4412|4414|4417|4419|4431|4432|4433|4434|4435|4436|4437|4438|4439|4471|5571|5579|V434)",re.IGNORECASE)</v>
+      </c>
+      <c r="D16">
+        <v>440</v>
+      </c>
+      <c r="E16">
+        <v>4412</v>
+      </c>
+      <c r="F16">
+        <v>4414</v>
+      </c>
+      <c r="G16">
+        <v>4417</v>
+      </c>
+      <c r="H16">
+        <v>4419</v>
+      </c>
+      <c r="I16">
+        <v>4431</v>
+      </c>
+      <c r="J16">
+        <v>4432</v>
+      </c>
+      <c r="K16">
+        <v>4433</v>
+      </c>
+      <c r="L16">
+        <v>4434</v>
+      </c>
+      <c r="M16">
+        <v>4435</v>
+      </c>
+      <c r="N16">
+        <v>4436</v>
+      </c>
+      <c r="O16">
+        <v>4437</v>
+      </c>
+      <c r="P16">
+        <v>4438</v>
+      </c>
+      <c r="Q16">
+        <v>4439</v>
+      </c>
+      <c r="R16">
+        <v>4471</v>
+      </c>
+      <c r="S16">
+        <v>5571</v>
+      </c>
+      <c r="T16">
+        <v>5579</v>
+      </c>
+      <c r="U16" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX06']=df['dxall'].str.contains(ELX06, regex=True)</v>
+      </c>
+      <c r="B17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:4011|4019)",re.IGNORECASE)</v>
+      </c>
+      <c r="D17">
+        <v>4011</v>
+      </c>
+      <c r="E17">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX07']=df['dxall'].str.contains(ELX07, regex=True)</v>
+      </c>
+      <c r="B18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:40210|40290|40410|40490|51|4059)",re.IGNORECASE)</v>
+      </c>
+      <c r="D18">
+        <v>40210</v>
+      </c>
+      <c r="E18">
+        <v>40290</v>
+      </c>
+      <c r="F18">
+        <v>40410</v>
+      </c>
+      <c r="G18">
+        <v>40490</v>
+      </c>
+      <c r="H18">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX08']=df['dxall'].str.contains(ELX08, regex=True)</v>
+      </c>
+      <c r="B19" t="s">
+        <v>960</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:3420|3421|3429|343|344)",re.IGNORECASE)</v>
+      </c>
+      <c r="D19">
+        <v>3420</v>
+      </c>
+      <c r="E19">
+        <v>3421</v>
+      </c>
+      <c r="F19">
+        <v>3429</v>
+      </c>
+      <c r="G19">
+        <v>343</v>
+      </c>
+      <c r="H19">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX09']=df['dxall'].str.contains(ELX09, regex=True)</v>
+      </c>
+      <c r="B20" t="s">
+        <v>961</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:3319|3320|3334|3335|334|335|340|3411|3412|3413|3414|3415|3416|3417|3418|3419|3450|3451|3454|3455|3458|3459|3481|3483|7803|7843)",re.IGNORECASE)</v>
+      </c>
+      <c r="D20">
+        <v>3319</v>
+      </c>
+      <c r="E20">
+        <v>3320</v>
+      </c>
+      <c r="F20">
+        <v>3334</v>
+      </c>
+      <c r="G20">
+        <v>3335</v>
+      </c>
+      <c r="H20">
+        <v>334</v>
+      </c>
+      <c r="I20">
+        <v>335</v>
+      </c>
+      <c r="J20">
+        <v>340</v>
+      </c>
+      <c r="K20">
+        <v>3411</v>
+      </c>
+      <c r="L20">
+        <v>3412</v>
+      </c>
+      <c r="M20">
+        <v>3413</v>
+      </c>
+      <c r="N20">
+        <v>3414</v>
+      </c>
+      <c r="O20">
+        <v>3415</v>
+      </c>
+      <c r="P20">
+        <v>3416</v>
+      </c>
+      <c r="Q20">
+        <v>3417</v>
+      </c>
+      <c r="R20">
+        <v>3418</v>
+      </c>
+      <c r="S20">
+        <v>3419</v>
+      </c>
+      <c r="T20">
+        <v>3450</v>
+      </c>
+      <c r="U20">
+        <v>3451</v>
+      </c>
+      <c r="V20">
+        <v>3454</v>
+      </c>
+      <c r="W20">
+        <v>3455</v>
+      </c>
+      <c r="X20">
+        <v>3458</v>
+      </c>
+      <c r="Y20">
+        <v>3459</v>
+      </c>
+      <c r="Z20">
+        <v>3481</v>
+      </c>
+      <c r="AA20">
+        <v>3483</v>
+      </c>
+      <c r="AB20">
+        <v>7803</v>
+      </c>
+      <c r="AC20">
+        <v>7843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX10']=df['dxall'].str.contains(ELX10, regex=True)</v>
+      </c>
+      <c r="B21" t="s">
+        <v>962</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:490|491|4920|4921|4922|4923|4924|4925|4926|4927|4928|4930|4931|4932|4933|4934|4935|4936|4937|4938|4939|494|495|496|497|498|499|500|501|502|503|504|505|5064)",re.IGNORECASE)</v>
+      </c>
+      <c r="D21">
+        <v>490</v>
+      </c>
+      <c r="E21">
+        <v>491</v>
+      </c>
+      <c r="F21">
+        <v>4920</v>
+      </c>
+      <c r="G21">
+        <v>4921</v>
+      </c>
+      <c r="H21">
+        <v>4922</v>
+      </c>
+      <c r="I21">
+        <v>4923</v>
+      </c>
+      <c r="J21">
+        <v>4924</v>
+      </c>
+      <c r="K21">
+        <v>4925</v>
+      </c>
+      <c r="L21">
+        <v>4926</v>
+      </c>
+      <c r="M21">
+        <v>4927</v>
+      </c>
+      <c r="N21">
+        <v>4928</v>
+      </c>
+      <c r="O21">
+        <v>4930</v>
+      </c>
+      <c r="P21">
+        <v>4931</v>
+      </c>
+      <c r="Q21">
+        <v>4932</v>
+      </c>
+      <c r="R21">
+        <v>4933</v>
+      </c>
+      <c r="S21">
+        <v>4934</v>
+      </c>
+      <c r="T21">
+        <v>4935</v>
+      </c>
+      <c r="U21">
+        <v>4936</v>
+      </c>
+      <c r="V21">
+        <v>4937</v>
+      </c>
+      <c r="W21">
+        <v>4938</v>
+      </c>
+      <c r="X21">
+        <v>4939</v>
+      </c>
+      <c r="Y21">
+        <v>494</v>
+      </c>
+      <c r="Z21">
+        <v>495</v>
+      </c>
+      <c r="AA21">
+        <v>496</v>
+      </c>
+      <c r="AB21">
+        <v>497</v>
+      </c>
+      <c r="AC21">
+        <v>498</v>
+      </c>
+      <c r="AD21">
+        <v>499</v>
+      </c>
+      <c r="AE21">
+        <v>500</v>
+      </c>
+      <c r="AF21">
+        <v>501</v>
+      </c>
+      <c r="AG21">
+        <v>502</v>
+      </c>
+      <c r="AH21">
+        <v>503</v>
+      </c>
+      <c r="AI21">
+        <v>504</v>
+      </c>
+      <c r="AJ21">
+        <v>505</v>
+      </c>
+      <c r="AK21">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX11']=df['dxall'].str.contains(ELX11, regex=True)</v>
+      </c>
+      <c r="B22" t="s">
+        <v>963</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2500|2501|2502|2503)",re.IGNORECASE)</v>
+      </c>
+      <c r="D22">
+        <v>2500</v>
+      </c>
+      <c r="E22">
+        <v>2501</v>
+      </c>
+      <c r="F22">
+        <v>2502</v>
+      </c>
+      <c r="G22">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX12']=df['dxall'].str.contains(ELX12, regex=True)</v>
+      </c>
+      <c r="B23" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2504|2505|2506|2507|2509)",re.IGNORECASE)</v>
+      </c>
+      <c r="D23">
+        <v>2504</v>
+      </c>
+      <c r="E23">
+        <v>2505</v>
+      </c>
+      <c r="F23">
+        <v>2506</v>
+      </c>
+      <c r="G23">
+        <v>2507</v>
+      </c>
+      <c r="H23">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX13']=df['dxall'].str.contains(ELX13, regex=True)</v>
+      </c>
+      <c r="B24" t="s">
+        <v>965</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:243|2440|2441|2442|2448|2449)",re.IGNORECASE)</v>
+      </c>
+      <c r="D24">
+        <v>243</v>
+      </c>
+      <c r="E24">
+        <v>2440</v>
+      </c>
+      <c r="F24">
+        <v>2441</v>
+      </c>
+      <c r="G24">
+        <v>2442</v>
+      </c>
+      <c r="H24">
+        <v>2448</v>
+      </c>
+      <c r="I24">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX14']=df['dxall'].str.contains(ELX14, regex=True)</v>
+      </c>
+      <c r="B25" t="s">
+        <v>966</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:40311|40391|40412|40492|585|586|V420|V451|V560|V568)",re.IGNORECASE)</v>
+      </c>
+      <c r="D25">
+        <v>40311</v>
+      </c>
+      <c r="E25">
+        <v>40391</v>
+      </c>
+      <c r="F25">
+        <v>40412</v>
+      </c>
+      <c r="G25">
+        <v>40492</v>
+      </c>
+      <c r="H25">
+        <v>585</v>
+      </c>
+      <c r="I25">
+        <v>586</v>
+      </c>
+      <c r="J25" t="s">
+        <v>982</v>
+      </c>
+      <c r="K25" t="s">
+        <v>983</v>
+      </c>
+      <c r="L25" t="s">
+        <v>984</v>
+      </c>
+      <c r="M25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX15']=df['dxall'].str.contains(ELX15, regex=True)</v>
+      </c>
+      <c r="B26" t="s">
+        <v>967</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:07032|07033|07054|4560|4561|4562|570|572|573|574|575|576|577|578|579|5723|5728|V427)",re.IGNORECASE)</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G26">
+        <v>4560</v>
+      </c>
+      <c r="H26">
+        <v>4561</v>
+      </c>
+      <c r="I26">
+        <v>4562</v>
+      </c>
+      <c r="J26">
+        <v>570</v>
+      </c>
+      <c r="K26">
+        <v>572</v>
+      </c>
+      <c r="L26">
+        <v>573</v>
+      </c>
+      <c r="M26">
+        <v>574</v>
+      </c>
+      <c r="N26">
+        <v>575</v>
+      </c>
+      <c r="O26">
+        <v>576</v>
+      </c>
+      <c r="P26">
+        <v>577</v>
+      </c>
+      <c r="Q26">
+        <v>578</v>
+      </c>
+      <c r="R26">
+        <v>579</v>
+      </c>
+      <c r="S26">
+        <v>5723</v>
+      </c>
+      <c r="T26">
+        <v>5728</v>
+      </c>
+      <c r="U26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX16']=df['dxall'].str.contains(ELX16, regex=True)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>968</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:53170|53190|53270|53290|53370|53390|53470|53490|V1271)",re.IGNORECASE)</v>
+      </c>
+      <c r="D27">
+        <v>53170</v>
+      </c>
+      <c r="E27">
+        <v>53190</v>
+      </c>
+      <c r="F27">
+        <v>53270</v>
+      </c>
+      <c r="G27">
+        <v>53290</v>
+      </c>
+      <c r="H27">
+        <v>53370</v>
+      </c>
+      <c r="I27">
+        <v>53390</v>
+      </c>
+      <c r="J27">
+        <v>53470</v>
+      </c>
+      <c r="K27">
+        <v>53490</v>
+      </c>
+      <c r="L27" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX17']=df['dxall'].str.contains(ELX17, regex=True)</v>
+      </c>
+      <c r="B28" t="s">
+        <v>969</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:042|043|044)",re.IGNORECASE)</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX18']=df['dxall'].str.contains(ELX18, regex=True)</v>
+      </c>
+      <c r="B29" t="s">
+        <v>970</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:200|201|2020|2021|2022|2023|2025|2026|2027|2028|2022030|2038|2386|2733|V1071|V1072|V1079)",re.IGNORECASE)</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>201</v>
+      </c>
+      <c r="F29">
+        <v>2020</v>
+      </c>
+      <c r="G29">
+        <v>2021</v>
+      </c>
+      <c r="H29">
+        <v>2022</v>
+      </c>
+      <c r="I29">
+        <v>2023</v>
+      </c>
+      <c r="J29">
+        <v>2025</v>
+      </c>
+      <c r="K29">
+        <v>2026</v>
+      </c>
+      <c r="L29">
+        <v>2027</v>
+      </c>
+      <c r="M29">
+        <v>2028</v>
+      </c>
+      <c r="N29">
+        <v>2022030</v>
+      </c>
+      <c r="O29">
+        <v>2038</v>
+      </c>
+      <c r="P29">
+        <v>2386</v>
+      </c>
+      <c r="Q29">
+        <v>2733</v>
+      </c>
+      <c r="R29" t="s">
+        <v>994</v>
+      </c>
+      <c r="S29" t="s">
+        <v>995</v>
+      </c>
+      <c r="T29" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX19']=df['dxall'].str.contains(ELX19, regex=True)</v>
+      </c>
+      <c r="B30" t="s">
+        <v>971</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:196|197|198|199)",re.IGNORECASE)</v>
+      </c>
+      <c r="D30">
+        <v>196</v>
+      </c>
+      <c r="E30">
+        <v>197</v>
+      </c>
+      <c r="F30">
+        <v>198</v>
+      </c>
+      <c r="G30">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX20']=df['dxall'].str.contains(ELX20, regex=True)</v>
+      </c>
+      <c r="B31" t="s">
+        <v>972</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:14|15|16|170|171|172|174|175|179|18|190|191|192|193|194|195|V10)",re.IGNORECASE)</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>170</v>
+      </c>
+      <c r="H31">
+        <v>171</v>
+      </c>
+      <c r="I31">
+        <v>172</v>
+      </c>
+      <c r="J31">
+        <v>174</v>
+      </c>
+      <c r="K31">
+        <v>175</v>
+      </c>
+      <c r="L31">
+        <v>179</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>190</v>
+      </c>
+      <c r="O31">
+        <v>191</v>
+      </c>
+      <c r="P31">
+        <v>192</v>
+      </c>
+      <c r="Q31">
+        <v>193</v>
+      </c>
+      <c r="R31">
+        <v>194</v>
+      </c>
+      <c r="S31">
+        <v>195</v>
+      </c>
+      <c r="T31" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX21']=df['dxall'].str.contains(ELX21, regex=True)</v>
+      </c>
+      <c r="B32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:7010|710|714|720|725)",re.IGNORECASE)</v>
+      </c>
+      <c r="D32">
+        <v>7010</v>
+      </c>
+      <c r="E32">
+        <v>710</v>
+      </c>
+      <c r="F32">
+        <v>714</v>
+      </c>
+      <c r="G32">
+        <v>720</v>
+      </c>
+      <c r="H32">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX22']=df['dxall'].str.contains(ELX22, regex=True)</v>
+      </c>
+      <c r="B33" t="s">
+        <v>974</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:286|2871|2873|2874|2875)",re.IGNORECASE)</v>
+      </c>
+      <c r="D33">
+        <v>286</v>
+      </c>
+      <c r="E33">
+        <v>2871</v>
+      </c>
+      <c r="F33">
+        <v>2873</v>
+      </c>
+      <c r="G33">
+        <v>2874</v>
+      </c>
+      <c r="H33">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX23']=df['dxall'].str.contains(ELX23, regex=True)</v>
+      </c>
+      <c r="B34" t="s">
+        <v>975</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:278)",re.IGNORECASE)</v>
+      </c>
+      <c r="D34">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX24']=df['dxall'].str.contains(ELX24, regex=True)</v>
+      </c>
+      <c r="B35" t="s">
+        <v>999</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:260|261|262|263)",re.IGNORECASE)</v>
+      </c>
+      <c r="D35">
+        <v>260</v>
+      </c>
+      <c r="E35">
+        <v>261</v>
+      </c>
+      <c r="F35">
+        <v>262</v>
+      </c>
+      <c r="G35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX25']=df['dxall'].str.contains(ELX25, regex=True)</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:276)",re.IGNORECASE)</v>
+      </c>
+      <c r="D36">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX26']=df['dxall'].str.contains(ELX26, regex=True)</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2800)",re.IGNORECASE)</v>
+      </c>
+      <c r="D37">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX27']=df['dxall'].str.contains(ELX27, regex=True)</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2801|2812|2823|2834|2845|2856|2867|2878|2889|2859)",re.IGNORECASE)</v>
+      </c>
+      <c r="D38">
+        <v>2801</v>
+      </c>
+      <c r="E38">
+        <v>2812</v>
+      </c>
+      <c r="F38">
+        <v>2823</v>
+      </c>
+      <c r="G38">
+        <v>2834</v>
+      </c>
+      <c r="H38">
+        <v>2845</v>
+      </c>
+      <c r="I38">
+        <v>2856</v>
+      </c>
+      <c r="J38">
+        <v>2867</v>
+      </c>
+      <c r="K38">
+        <v>2878</v>
+      </c>
+      <c r="L38">
+        <v>2889</v>
+      </c>
+      <c r="M38">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX28']=df['dxall'].str.contains(ELX28, regex=True)</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2911|2912|2915|2916|2917|2918|2919|3039|3050|V113)",re.IGNORECASE)</v>
+      </c>
+      <c r="D39">
+        <v>2911</v>
+      </c>
+      <c r="E39">
+        <v>2912</v>
+      </c>
+      <c r="F39">
+        <v>2915</v>
+      </c>
+      <c r="G39">
+        <v>2916</v>
+      </c>
+      <c r="H39">
+        <v>2917</v>
+      </c>
+      <c r="I39">
+        <v>2918</v>
+      </c>
+      <c r="J39">
+        <v>2919</v>
+      </c>
+      <c r="K39">
+        <v>3039</v>
+      </c>
+      <c r="L39">
+        <v>3050</v>
+      </c>
+      <c r="M39" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX29']=df['dxall'].str.contains(ELX29, regex=True)</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:2920|29282|29283|29284|29285|29286|29287|29288|29289|2929|3040|3052|3053|3054|3055|3056|3057|3058|3059)",re.IGNORECASE)</v>
+      </c>
+      <c r="D40">
+        <v>2920</v>
+      </c>
+      <c r="E40">
+        <v>29282</v>
+      </c>
+      <c r="F40">
+        <v>29283</v>
+      </c>
+      <c r="G40">
+        <v>29284</v>
+      </c>
+      <c r="H40">
+        <v>29285</v>
+      </c>
+      <c r="I40">
+        <v>29286</v>
+      </c>
+      <c r="J40">
+        <v>29287</v>
+      </c>
+      <c r="K40">
+        <v>29288</v>
+      </c>
+      <c r="L40">
+        <v>29289</v>
+      </c>
+      <c r="M40">
+        <v>2929</v>
+      </c>
+      <c r="N40">
+        <v>3040</v>
+      </c>
+      <c r="O40">
+        <v>3052</v>
+      </c>
+      <c r="P40">
+        <v>3053</v>
+      </c>
+      <c r="Q40">
+        <v>3054</v>
+      </c>
+      <c r="R40">
+        <v>3055</v>
+      </c>
+      <c r="S40">
+        <v>3056</v>
+      </c>
+      <c r="T40">
+        <v>3057</v>
+      </c>
+      <c r="U40">
+        <v>3058</v>
+      </c>
+      <c r="V40">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX30']=df['dxall'].str.contains(ELX30, regex=True)</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:295|296|297|298|2991)",re.IGNORECASE)</v>
+      </c>
+      <c r="D41">
+        <v>295</v>
+      </c>
+      <c r="E41">
+        <v>296</v>
+      </c>
+      <c r="F41">
+        <v>297</v>
+      </c>
+      <c r="G41">
+        <v>298</v>
+      </c>
+      <c r="H41">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>df['ELX31']=df['dxall'].str.contains(ELX31, regex=True)</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>=re.compile("\^+(?:3004|30112|3090|3091|311)",re.IGNORECASE)</v>
+      </c>
+      <c r="D42">
+        <v>3004</v>
+      </c>
+      <c r="E42">
+        <v>30112</v>
+      </c>
+      <c r="F42">
+        <v>3090</v>
+      </c>
+      <c r="G42">
+        <v>3091</v>
+      </c>
+      <c r="H42">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CMS SAF/PQI Elixhauser CCI/PQIRegexBuilder.xlsx
+++ b/CMS SAF/PQI Elixhauser CCI/PQIRegexBuilder.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\Dev\OSUDatacore\CMS SAF\PQI Elixhauser CCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawr47/Desktop/OSUDatacore/CMS SAF/PQI Elixhauser CCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB77CF03-49D1-487D-BC64-1BAE69EC7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E93D9-EE62-7345-A91F-24C8E5D1D20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="4995" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{144A000C-2920-4EA8-87D8-823EFC9E4711}"/>
+    <workbookView xWindow="4560" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{144A000C-2920-4EA8-87D8-823EFC9E4711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="ICD9" sheetId="2" r:id="rId2"/>
-    <sheet name="CCI" sheetId="3" r:id="rId3"/>
-    <sheet name="Elix" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="CCI" sheetId="3" r:id="rId4"/>
+    <sheet name="Elix" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7357" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1043">
   <si>
     <t>)",re.IGNORECASE)</t>
   </si>
@@ -3100,6 +3092,72 @@
   </si>
   <si>
     <t>0093</t>
+  </si>
+  <si>
+    <t>df['PQI01']=df['dxall'].str.contains(PQI01, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI02']=df['dxall'].str.contains(PQI02, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI03']=df['dxall'].str.contains(PQI03, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI05']=df['dxall'].str.contains(PQI05, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI05NOT']=df['dxall'].str.contains(PQI05NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI07']=df['dxall'].str.contains(PQI07, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI07NOT']=df['dxall'].str.contains(PQI07NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI07NOTProc']=df['dxall'].str.contains(PQI07NOTProc, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI08']=df['dxall'].str.contains(PQI08, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI09']=df['dxall'].str.contains(PQI09, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI10']=df['dxall'].str.contains(PQI10, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI10NOT']=df['dxall'].str.contains(PQI10NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI11']=df['dxall'].str.contains(PQI11, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI11NOT']=df['dxall'].str.contains(PQI11NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI12']=df['dxall'].str.contains(PQI12, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI12NOT']=df['dxall'].str.contains(PQI12NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI14']=df['dxall'].str.contains(PQI14, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI15']=df['dxall'].str.contains(PQI15, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI15NOT']=df['dxall'].str.contains(PQI15NOT, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI16Proc']=df['dxall'].str.contains(PQI16Proc, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI16AND']=df['dxall'].str.contains(PQI16AND, regex=True)</t>
+  </si>
+  <si>
+    <t>df['PQI16NOTPROC']=df['dxall'].str.contains(PQI16NOTPROC, regex=True)</t>
   </si>
 </sst>
 </file>
@@ -3149,10 +3207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3469,13 +3530,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF03D62-DF0B-46CF-B5F6-547703A8F7C7}">
   <dimension ref="A3:JV137"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:147" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>896</v>
       </c>
@@ -3483,17 +3544,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:147" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -3526,7 +3587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -3739,7 +3800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -4183,7 +4244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -4330,7 +4391,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -4354,7 +4415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -4687,7 +4748,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -4753,7 +4814,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -4807,7 +4868,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -4864,7 +4925,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -4918,7 +4979,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -5158,7 +5219,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="23" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -5182,7 +5243,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="24" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -5308,7 +5369,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -5359,7 +5420,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -5503,7 +5564,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -5638,7 +5699,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -6016,7 +6077,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -6241,7 +6302,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="30" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -6268,7 +6329,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -6358,7 +6419,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="32" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -6439,7 +6500,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -6466,7 +6527,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="37" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -6493,7 +6554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -7015,7 +7076,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -7459,7 +7520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -7615,7 +7676,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -7648,7 +7709,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="42" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -7870,7 +7931,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="43" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -7936,7 +7997,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -7990,7 +8051,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="45" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2017</v>
       </c>
@@ -8050,7 +8111,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2017</v>
       </c>
@@ -8104,7 +8165,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2017</v>
       </c>
@@ -8341,7 +8402,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2017</v>
       </c>
@@ -8365,7 +8426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2017</v>
       </c>
@@ -8416,7 +8477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2017</v>
       </c>
@@ -8572,7 +8633,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -8707,7 +8768,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="52" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2017</v>
       </c>
@@ -9550,7 +9611,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2017</v>
       </c>
@@ -9775,7 +9836,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="54" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2017</v>
       </c>
@@ -9802,7 +9863,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2017</v>
       </c>
@@ -9892,7 +9953,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2017</v>
       </c>
@@ -9976,7 +10037,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="57" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2017</v>
       </c>
@@ -10003,7 +10064,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -10036,7 +10097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -10558,7 +10619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -11002,7 +11063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -11158,7 +11219,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -11191,7 +11252,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="65" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -11488,7 +11549,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="66" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -11581,7 +11642,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -11635,7 +11696,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -11695,7 +11756,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -11749,7 +11810,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -11986,7 +12047,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="71" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -12016,7 +12077,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="72" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -12067,7 +12128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -12223,7 +12284,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -12358,7 +12419,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="75" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -13201,7 +13262,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -13426,7 +13487,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="77" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -13453,7 +13514,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="78" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -13543,7 +13604,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="79" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -13627,7 +13688,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="80" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -13654,7 +13715,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="83" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -13687,7 +13748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -14209,7 +14270,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -14653,7 +14714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -14809,7 +14870,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -14842,7 +14903,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="88" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -15157,7 +15218,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="89" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2019</v>
       </c>
@@ -15250,7 +15311,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -15304,7 +15365,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -15364,7 +15425,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -15415,7 +15476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -15652,7 +15713,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2019</v>
       </c>
@@ -15676,7 +15737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -15727,7 +15788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:173" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:173" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -15883,7 +15944,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -16018,7 +16079,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -16861,7 +16922,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -17086,7 +17147,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="102" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -17119,7 +17180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -17641,7 +17702,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -18085,7 +18146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -18241,7 +18302,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -18274,7 +18335,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="107" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -18640,7 +18701,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="108" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -18733,7 +18794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -18787,7 +18848,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -18847,7 +18908,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="111" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -18898,7 +18959,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:280" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -19135,7 +19196,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="113" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -19159,7 +19220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -19210,7 +19271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -19366,7 +19427,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -19501,7 +19562,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="117" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -20350,7 +20411,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="118" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -20575,7 +20636,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="121" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -20608,7 +20669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -21130,7 +21191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -21574,7 +21635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -21730,7 +21791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -21763,7 +21824,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="126" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -22129,7 +22190,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="127" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -22222,7 +22283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="128" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -22276,7 +22337,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -22336,7 +22397,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="130" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -22387,7 +22448,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="131" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -22624,7 +22685,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="132" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -22648,7 +22709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -22699,7 +22760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -22855,7 +22916,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -22990,7 +23051,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="136" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -23839,7 +23900,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:282" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -24074,21 +24135,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CC263-30BD-4C84-A6B3-C86C938CA5C9}">
   <dimension ref="A1:FI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>896</v>
       </c>
@@ -24096,12 +24157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
         <v>df['PQI01']=df['dxall'].str.contains(PQI01, regex=True)</v>
@@ -24109,9 +24170,9 @@
       <c r="B12" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C12" t="str">
-        <f>$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D12:JS12)&amp;$C$3</f>
-        <v>=re.compile("\^+(?:E1010|E1011|E10641|E1065|E1100|E1101|E11641|E1165|25010|25011|25012|25013|25020|25021|25022|25023|25030|25031|25032|25033)",re.IGNORECASE)</v>
+      <c r="C12" t="e">
+        <f ca="1">$B$3&amp;TEXTJOIN("|",TRUE,D12:JS12)&amp;$C$3</f>
+        <v>#NAME?</v>
       </c>
       <c r="D12" t="s">
         <v>486</v>
@@ -24174,7 +24235,7 @@
         <v>25033</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A33" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
         <v>df['PQI02']=df['dxall'].str.contains(PQI02, regex=True)</v>
@@ -24182,9 +24243,9 @@
       <c r="B13" t="s">
         <v>910</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:C33" si="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D13:JS13)&amp;$C$3</f>
-        <v>=re.compile("\^+(?:K352|K353|5400|5401)",re.IGNORECASE)</v>
+      <c r="C13" t="e">
+        <f ca="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D13:JS13)&amp;$C$3</f>
+        <v>#NAME?</v>
       </c>
       <c r="D13" t="s">
         <v>604</v>
@@ -24199,7 +24260,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI03']=df['dxall'].str.contains(PQI03, regex=True)</v>
@@ -24207,9 +24268,9 @@
       <c r="B14" t="s">
         <v>911</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E1021|E1022|E1029|E10311|E10319|E10321|E10329|E10331|E10339|E10341|E1121|E1122|E1129|E11311|E11319|E11321|E11331|E11329|E11339|E11341|E10349|E10351|E10359|E1036|E1039|E1040|E1041|E1042|E1043|E1044|E1049|E1051|E1052|E1059|E11349|E11351|E11359|E1136|E1139|E1140|E1141|E1142|E1143|E1144|E1149|E1151|E1152|E1159|E10610|E10618|E10620|E10621|E10622|E10628|E10630|E10638|E1069|E108|E11610|E11618|E11620|E11621|E11622|E11628|E11630|E11638|E1169|E118|25040|25041|25042|25043|25050|25051|25052|25053|25060|25061|25062|25063|25070|25071|25072|25073|25080|25081|25082|25083|25084|25085|25092|25093)",re.IGNORECASE)</v>
+      <c r="C14" t="e">
+        <f ca="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D14:JS14)&amp;$C$3</f>
+        <v>#NAME?</v>
       </c>
       <c r="D14" t="s">
         <v>487</v>
@@ -24423,11 +24484,11 @@
         <v>25041</v>
       </c>
       <c r="BV14">
-        <f t="shared" ref="BV14:CQ14" si="2">BU14+1</f>
+        <f>BU14+1</f>
         <v>25042</v>
       </c>
       <c r="BW14">
-        <f t="shared" si="2"/>
+        <f>BV14+1</f>
         <v>25043</v>
       </c>
       <c r="BX14">
@@ -24435,55 +24496,55 @@
         <v>25050</v>
       </c>
       <c r="BY14">
-        <f t="shared" si="2"/>
+        <f>BX14+1</f>
         <v>25051</v>
       </c>
       <c r="BZ14">
-        <f t="shared" si="2"/>
+        <f>BY14+1</f>
         <v>25052</v>
       </c>
       <c r="CA14">
-        <f t="shared" si="2"/>
+        <f>BZ14+1</f>
         <v>25053</v>
       </c>
       <c r="CB14">
-        <f t="shared" ref="CB14" si="3">BX14+10</f>
+        <f>BX14+10</f>
         <v>25060</v>
       </c>
       <c r="CC14">
-        <f t="shared" si="2"/>
+        <f>CB14+1</f>
         <v>25061</v>
       </c>
       <c r="CD14">
-        <f t="shared" si="2"/>
+        <f>CC14+1</f>
         <v>25062</v>
       </c>
       <c r="CE14">
-        <f t="shared" si="2"/>
+        <f>CD14+1</f>
         <v>25063</v>
       </c>
       <c r="CF14">
-        <f t="shared" ref="CF14" si="4">CB14+10</f>
+        <f>CB14+10</f>
         <v>25070</v>
       </c>
       <c r="CG14">
-        <f t="shared" si="2"/>
+        <f>CF14+1</f>
         <v>25071</v>
       </c>
       <c r="CH14">
-        <f t="shared" si="2"/>
+        <f>CG14+1</f>
         <v>25072</v>
       </c>
       <c r="CI14">
-        <f t="shared" si="2"/>
+        <f>CH14+1</f>
         <v>25073</v>
       </c>
       <c r="CJ14">
-        <f t="shared" ref="CJ14" si="5">CF14+10</f>
+        <f>CF14+10</f>
         <v>25080</v>
       </c>
       <c r="CK14">
-        <f t="shared" si="2"/>
+        <f>CJ14+1</f>
         <v>25081</v>
       </c>
       <c r="CL14">
@@ -24491,27 +24552,27 @@
         <v>25082</v>
       </c>
       <c r="CM14">
-        <f t="shared" si="2"/>
+        <f>CL14+1</f>
         <v>25083</v>
       </c>
       <c r="CN14">
-        <f t="shared" si="2"/>
+        <f>CM14+1</f>
         <v>25084</v>
       </c>
       <c r="CO14">
-        <f t="shared" si="2"/>
+        <f>CN14+1</f>
         <v>25085</v>
       </c>
       <c r="CP14">
-        <f t="shared" ref="CP14" si="6">CL14+10</f>
+        <f>CL14+10</f>
         <v>25092</v>
       </c>
       <c r="CQ14">
-        <f t="shared" si="2"/>
+        <f>CP14+1</f>
         <v>25093</v>
       </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI05']=df['dxall'].str.contains(PQI05, regex=True)</v>
@@ -24519,9 +24580,9 @@
       <c r="B15" t="s">
         <v>912</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:J410|J411|J418|J42|J430|J431|J432|J438|J439|J440|J441|J4521|J4522|J4531|J4532|J4541|J4542|J4551|J4552|J45901|J45902|J45990|J45991|J45998|J470|J471|J479|4910|4911|49120|49121|49122|4918|1919|1920|1928|494|4940|4941|496|49300|49301|49302|49310|49311|49312|49320|49321|49322|49381|49382|49390|49391|49392)",re.IGNORECASE)</v>
+      <c r="C15" t="e">
+        <f t="shared" ref="C12:C33" ca="1" si="1">$B$3&amp;_xlfn.TEXTJOIN("|",TRUE,D15:JS15)&amp;$C$3</f>
+        <v>#NAME?</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -24695,7 +24756,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI05NOT']=df['dxall'].str.contains(PQI05NOT, regex=True)</v>
@@ -24703,9 +24764,9 @@
       <c r="B16" t="s">
         <v>921</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E840|E8411|E8419|E848|E849|J8483|J84841|J84842|J84843|J84848|P270|P271|P278|P279|Q254|Q311|Q312|Q313|Q315|Q318|Q319|Q320|Q321|Q322|Q323|Q324|Q330|Q331|Q332|Q333|Q334|Q335|Q336|Q338|Q339|Q340|Q341|Q348|Q349|Q390|Q391|Q392|Q393|Q394|27700|27701|27702|27703|27709|51661|51662|51663|51664|51669|74721|7483|7484|7485|74860|74861|74869|7488|7489|7503|7593|7707)",re.IGNORECASE)</v>
+      <c r="C16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
@@ -24847,11 +24908,11 @@
         <v>27701</v>
       </c>
       <c r="AX16">
-        <f t="shared" ref="AX16:AY16" si="7">AW16+1</f>
+        <f t="shared" ref="AX16:AY16" si="2">AW16+1</f>
         <v>27702</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>27703</v>
       </c>
       <c r="AZ16">
@@ -24865,11 +24926,11 @@
         <v>51662</v>
       </c>
       <c r="BC16">
-        <f t="shared" ref="BC16:BE16" si="8">BB16+1</f>
+        <f t="shared" ref="BC16:BD16" si="3">BB16+1</f>
         <v>51663</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>51664</v>
       </c>
       <c r="BE16">
@@ -24912,7 +24973,7 @@
         <v>7707</v>
       </c>
     </row>
-    <row r="17" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI07']=df['dxall'].str.contains(PQI07, regex=True)</v>
@@ -24920,9 +24981,9 @@
       <c r="B17" t="s">
         <v>913</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:I10|I119|I129|I1310|4010|4019|40200|40210|40290|40300|40310|40390|40400|40410|40490)",re.IGNORECASE)</v>
+      <c r="C17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D17" t="s">
         <v>154</v>
@@ -24970,7 +25031,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="18" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI07NOT']=df['dxall'].str.contains(PQI07NOT, regex=True)</v>
@@ -24978,9 +25039,9 @@
       <c r="B18" t="s">
         <v>922</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:I129|I1310|40300|40310|40390|40400|40410|40490)",re.IGNORECASE)</v>
+      <c r="C18" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D18" t="s">
         <v>156</v>
@@ -25007,7 +25068,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="19" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI07NOTProc']=df['dxall'].str.contains(PQI07NOTProc, regex=True)</v>
@@ -25015,9 +25076,9 @@
       <c r="B19" t="s">
         <v>923</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:03170AD|031209D|031209F|03120AD|03120AF|03120JD|03120JF|03120KD|03120KF|03120ZD|03120ZF|031309D|031309F|03130AD|03130AF|03130JD|03130JF|03130KD|03130KF|03130ZD|03130ZF|031409D|031409F|03140AD|03140AF|03140JD|03140JF|03140KD|03140KF|03140ZD|03140ZF|031509D|031509F|03150AD|03150AF|03150JD|03150JF|03150KD|03150KF|03150ZD|03150ZF|031609D|031609F|03160AD|03160AF|03160JD|03160JF|03160KD|03160KF|03160ZD|03160ZF|031709D|031709F|03170AF|03170JD|03170JF|03170KD|03170KF|03170ZD|03170ZF|031809D|031809F|03180AD|03180AF|03180JD|03180JF|03180KD|03180KF|03180ZD|03180ZF|031909F|03190AF|03190JF|03190KF|03190ZF|031A09F|031A0AF|031A0JF|031A0KF|031A0ZF|031B09F|031B0AF|031B0JF|031B0KF|031B0ZF|031C09F|031C0AF|031C0JF|031C0KF|031C0ZF|03PY07Z|03PY0JZ|03PY0KZ|03PY37Z|03PY3JZ|03PY3KZ|03PY47Z|03PY4JZ|03PY4KZ|03WY0JZ|03WY3JZ|03WY4JZ|03WYXJZ|05HY33Z|06HY33Z|3895|3927|3929|3942|3943|3993|3994)",re.IGNORECASE)</v>
+      <c r="C19" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D19" t="s">
         <v>158</v>
@@ -25356,7 +25417,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="20" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI08']=df['dxall'].str.contains(PQI08, regex=True)</v>
@@ -25364,9 +25425,9 @@
       <c r="B20" t="s">
         <v>914</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:I0981|I110|I130|I132|I501|I5020|I5021|I5022|I5023|I5030|I5031|I5032|I5033|I5040|I5041|I5042|I5043|I509|39891|40201|40211|40291|40401|40413|40491|40493|4280|4281|42820|42821|42822|42823|42830|42831|42832|42833|42840|42841|42842|42843|4289)",re.IGNORECASE)</v>
+      <c r="C20" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D20" t="s">
         <v>264</v>
@@ -25499,7 +25560,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="21" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI09']=df['dxall'].str.contains(PQI09, regex=True)</v>
@@ -25507,9 +25568,9 @@
       <c r="B21" t="s">
         <v>915</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:P0501|P0502|P0503|P0504|P0505|P0506|P0507|P0508|P0511|P0512|P0513|P0514|P0515|P0516|P0517|P0518|P0700|P0701|P0702|P0703|P0710|P0714|P0715|P0716|P0717|P0718|76400|76401|76402|76403|76404|76405|76406|76407|76408|76410|76411|76412|76413|76414|76415|76416|76417|76418|76420|76421|76422|76423|76424|76425|76426|76427|76428|76490|76491|76492|76493|76494|76495|76496|76497|76498|76500|76501|76502|76503|76504|76505|76506|76507|76508|76510|76511|76512|76513|76514|76515|76516|76517|76518)",re.IGNORECASE)</v>
+      <c r="C21" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D21" t="s">
         <v>610</v>
@@ -25597,27 +25658,27 @@
         <v>76401</v>
       </c>
       <c r="AF21">
-        <f t="shared" ref="AF21:AK21" si="9">AE21+1</f>
+        <f t="shared" ref="AF21:AK21" si="4">AE21+1</f>
         <v>76402</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>76403</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>76404</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>76405</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>76406</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>76407</v>
       </c>
       <c r="AL21">
@@ -25629,71 +25690,71 @@
         <v>76410</v>
       </c>
       <c r="AN21">
-        <f t="shared" ref="AN21:BD21" si="10">AE21+10</f>
+        <f t="shared" ref="AN21:BD21" si="5">AE21+10</f>
         <v>76411</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76412</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76413</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76414</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76415</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76416</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76417</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76418</v>
       </c>
       <c r="AV21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76420</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76421</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76422</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76423</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76424</v>
       </c>
       <c r="BA21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76425</v>
       </c>
       <c r="BB21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76426</v>
       </c>
       <c r="BC21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76427</v>
       </c>
       <c r="BD21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>76428</v>
       </c>
       <c r="BE21">
@@ -25705,31 +25766,31 @@
         <v>76491</v>
       </c>
       <c r="BG21">
-        <f t="shared" ref="BG21:BM21" si="11">BF21+1</f>
+        <f t="shared" ref="BG21:BM21" si="6">BF21+1</f>
         <v>76492</v>
       </c>
       <c r="BH21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76493</v>
       </c>
       <c r="BI21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76494</v>
       </c>
       <c r="BJ21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76495</v>
       </c>
       <c r="BK21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76496</v>
       </c>
       <c r="BL21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76497</v>
       </c>
       <c r="BM21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>76498</v>
       </c>
       <c r="BN21">
@@ -25740,31 +25801,31 @@
         <v>76501</v>
       </c>
       <c r="BP21">
-        <f t="shared" ref="BP21:BV21" si="12">BO21+1</f>
+        <f t="shared" ref="BP21:BV21" si="7">BO21+1</f>
         <v>76502</v>
       </c>
       <c r="BQ21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76503</v>
       </c>
       <c r="BR21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76504</v>
       </c>
       <c r="BS21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76505</v>
       </c>
       <c r="BT21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76506</v>
       </c>
       <c r="BU21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76507</v>
       </c>
       <c r="BV21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>76508</v>
       </c>
       <c r="BW21">
@@ -25776,35 +25837,35 @@
         <v>76511</v>
       </c>
       <c r="BY21">
-        <f t="shared" ref="BY21:CE21" si="13">BX21+1</f>
+        <f t="shared" ref="BY21:CE21" si="8">BX21+1</f>
         <v>76512</v>
       </c>
       <c r="BZ21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76513</v>
       </c>
       <c r="CA21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76514</v>
       </c>
       <c r="CB21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76515</v>
       </c>
       <c r="CC21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76516</v>
       </c>
       <c r="CD21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76517</v>
       </c>
       <c r="CE21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>76518</v>
       </c>
     </row>
-    <row r="22" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI10']=df['dxall'].str.contains(PQI10, regex=True)</v>
@@ -25812,9 +25873,9 @@
       <c r="B22" t="s">
         <v>916</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E860|E869|E861|E870|A080|A0811|A0819|A082|A0831|A0832|A0839|A084|A088|A09|K5289|K529|N170|N171|N172|N178|N179|N19|N990|2765|27650|27651|27652|2760|00861|00862|00863|00864|00865|00866|00867|00869|0088|0090|0091|0092|0093|5589|5845|5846|5847|5848|5849|586|9975)",re.IGNORECASE)</v>
+      <c r="C22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D22" t="s">
         <v>637</v>
@@ -25964,7 +26025,7 @@
         <v>9975</v>
       </c>
     </row>
-    <row r="23" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI10NOT']=df['dxall'].str.contains(PQI10NOT, regex=True)</v>
@@ -25972,9 +26033,9 @@
       <c r="B23" t="s">
         <v>925</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:I120|N185|N186|I1311|I132|40301|40311|40391|40402|40403|40412|40413|40492|40493|5855|5856)",re.IGNORECASE)</v>
+      <c r="C23" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D23" t="s">
         <v>659</v>
@@ -26025,7 +26086,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="24" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI11']=df['dxall'].str.contains(PQI11, regex=True)</v>
@@ -26033,9 +26094,9 @@
       <c r="B24" t="s">
         <v>917</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:J13|J14|J15211|J15212|J153|J154|J157|J159|J160|J168|J180|J181|J188|J189|481|4822|48230|48231|48232|48239|48240|48241|48242|48249|4829|4830|4831|4838|485|486)",re.IGNORECASE)</v>
+      <c r="C24" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D24" t="s">
         <v>283</v>
@@ -26105,11 +26166,11 @@
         <v>48240</v>
       </c>
       <c r="Y24">
-        <f t="shared" ref="Y24:Z24" si="14">X24+1</f>
+        <f t="shared" ref="Y24:Z24" si="9">X24+1</f>
         <v>48241</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>48242</v>
       </c>
       <c r="AA24">
@@ -26138,7 +26199,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI11NOT']=df['dxall'].str.contains(PQI11NOT, regex=True)</v>
@@ -26146,9 +26207,9 @@
       <c r="B25" t="s">
         <v>926</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:D5700|D5701|D5702|D571|D5720|D57211|D57212|D57219|D5740|D57411|D57412|D57419|D5780|D57811|D57812|D57819|28241|28242|28260|28261|28262|28263|28264|28268|28269)",re.IGNORECASE)</v>
+      <c r="C25" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D25" t="s">
         <v>297</v>
@@ -26215,11 +26276,11 @@
         <v>28262</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Z25" si="15">X25+1</f>
+        <f t="shared" ref="Y25:Z25" si="10">X25+1</f>
         <v>28263</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>28264</v>
       </c>
       <c r="AA25">
@@ -26229,7 +26290,7 @@
         <v>28269</v>
       </c>
     </row>
-    <row r="26" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI12']=df['dxall'].str.contains(PQI12, regex=True)</v>
@@ -26237,9 +26298,9 @@
       <c r="B26" t="s">
         <v>918</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:N10|N119|N12|N151|N159|N16|N2884|N2885|N2886|N3000|N3001|N3090|N3091|59010|59011|5902|5903|59080|59081|5909|5950|5959|5990)",re.IGNORECASE)</v>
+      <c r="C26" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D26" t="s">
         <v>313</v>
@@ -26311,7 +26372,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="27" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI12NOT']=df['dxall'].str.contains(PQI12NOT, regex=True)</v>
@@ -26319,9 +26380,9 @@
       <c r="B27" t="s">
         <v>927</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:N110|N111|N118|N119|N1370|N1371|N13721|N13722|N13729|N13731|N13732|N13739|N139|Q600|Q601|Q602|Q603|Q604|Q605|Q606|Q6100|Q6101|Q6102|Q6111|Q6119|Q612|Q613|Q614|Q615|Q618|Q619|Q620|Q6210|Q6211|Q6212|Q622|Q6231|Q6232|Q6239|Q624|Q625|Q6260|Q6261|Q6262|Q6263|Q6269|Q627|Q628|Q630|Q631|Q632|Q633|Q638|Q639|Q6410|Q6411|Q6419|Q642|Q6431|Q6432|Q6433|Q6439|Q645|Q646|Q6470|Q6471|Q6472|Q6473|Q6474|Q6475|Q6479|Q648|Q649|79000|79001|59370|59371|59372|59373|7530|75310|75311|75312|75313|75314|75315|75316|75317|75319|75320|75321|75322|75323|75329|7533|7534|7535|7536|7538|7539)",re.IGNORECASE)</v>
+      <c r="C27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D27" t="s">
         <v>327</v>
@@ -26557,11 +26618,11 @@
         <v>59371</v>
       </c>
       <c r="CC27">
-        <f t="shared" ref="CC27:CD27" si="16">CB27+1</f>
+        <f t="shared" ref="CC27:CD27" si="11">CB27+1</f>
         <v>59372</v>
       </c>
       <c r="CD27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>59373</v>
       </c>
       <c r="CE27">
@@ -26575,27 +26636,27 @@
         <v>75311</v>
       </c>
       <c r="CH27">
-        <f t="shared" ref="CH27:CN27" si="17">CG27+1</f>
+        <f t="shared" ref="CH27:CM27" si="12">CG27+1</f>
         <v>75312</v>
       </c>
       <c r="CI27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>75313</v>
       </c>
       <c r="CJ27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>75314</v>
       </c>
       <c r="CK27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>75315</v>
       </c>
       <c r="CL27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>75316</v>
       </c>
       <c r="CM27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>75317</v>
       </c>
       <c r="CN27">
@@ -26607,15 +26668,15 @@
         <v>75320</v>
       </c>
       <c r="CP27">
-        <f t="shared" ref="CP27:CR27" si="18">CO27+1</f>
+        <f t="shared" ref="CP27:CR27" si="13">CO27+1</f>
         <v>75321</v>
       </c>
       <c r="CQ27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>75322</v>
       </c>
       <c r="CR27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>75323</v>
       </c>
       <c r="CS27">
@@ -26641,7 +26702,7 @@
         <v>7539</v>
       </c>
     </row>
-    <row r="28" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI14']=df['dxall'].str.contains(PQI14, regex=True)</v>
@@ -26649,9 +26710,9 @@
       <c r="B28" t="s">
         <v>919</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E1065|E1165|E10649|E11649|25002|25003)",re.IGNORECASE)</v>
+      <c r="C28" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -26672,7 +26733,7 @@
         <v>25003</v>
       </c>
     </row>
-    <row r="29" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI15']=df['dxall'].str.contains(PQI15, regex=True)</v>
@@ -26680,9 +26741,9 @@
       <c r="B29" t="s">
         <v>920</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:J4521|J4522|J4531|J4532|J4541|J4542|J4551|J4552|J45901|J45902|J45990|J45991|J45998|49300|49301|49302|49310|49311|49312|49320|49321|49322|49380|49381|49382|49390|49391|49392)",re.IGNORECASE)</v>
+      <c r="C29" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D29" t="s">
         <v>95</v>
@@ -26783,7 +26844,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="30" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI15NOT']=df['dxall'].str.contains(PQI15NOT, regex=True)</v>
@@ -26791,9 +26852,9 @@
       <c r="B30" t="s">
         <v>928</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E840|E8411|E8419|E848|E849|J8483|J84841|J84842|J84843|J84848|P270|P271|P278|P279|Q254|Q311|Q312|Q313|Q315|Q318|Q319|Q320|Q321|Q322|Q323|Q324|Q330|Q331|Q332|Q333|Q334|Q335|Q336|Q338|Q339|Q340|Q341|Q348|Q349|Q390|Q391|Q392|Q393|Q394|Q893|27700|27701|27702|27703|27709|51661|51662|51663|51664|51669|74721|7483|7484|7485|74860|74861|74869|7488|7489|7503|7593|7707)",re.IGNORECASE)</v>
+      <c r="C30" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
@@ -27005,7 +27066,7 @@
         <v>7707</v>
       </c>
     </row>
-    <row r="31" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI16Proc']=df['dxall'].str.contains(PQI16Proc, regex=True)</v>
@@ -27013,9 +27074,9 @@
       <c r="B31" t="s">
         <v>929</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:0Y620ZZ|0Y630ZZ|0Y640ZZ|0Y670ZZ|0Y680ZZ|0Y6C0Z1|0Y6C0Z2|0Y6C0Z3|0Y6D0Z1|0Y6D0Z2|0Y6D0Z3|0Y6F0ZZ|0Y6G0ZZ|0Y6H0Z1|0Y6H0Z2|0Y6H0Z3|0Y6J0Z1|0Y6J0Z2|0Y6J0Z3|0Y6M0Z0|0Y6M0Z4|0Y6M0Z5|0Y6M0Z6|0Y6M0Z7|0Y6M0Z8|0Y6M0Z9|0Y6M0ZB|0Y6M0ZC|0Y6M0ZD|0Y6M0ZF|0Y6N0Z0|0Y6N0Z4|0Y6N0Z5|0Y6N0Z6|0Y6N0Z7|0Y6N0Z8|0Y6N0Z9|0Y6N0ZB|0Y6N0ZC|0Y6N0ZD|0Y6N0ZF|8410|8412|8413|8418|8415|8416|8417|8418|8419)",re.IGNORECASE)</v>
+      <c r="C31" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D31" t="s">
         <v>445</v>
@@ -27168,7 +27229,7 @@
         <v>8419</v>
       </c>
     </row>
-    <row r="32" spans="1:165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI16AND']=df['dxall'].str.contains(PQI16AND, regex=True)</v>
@@ -27176,9 +27237,9 @@
       <c r="B32" t="s">
         <v>930</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:E1010|E1011|E1021|E1022|E1029|E10311|E10319|E10321|E10329|E10331|E10339|E10341|E10349|E10351|E10359|E1036|E1039|E1040|E1041|E1042|E1043|E1044|E1049|E1051|E1052|E1059|E10610|E10618|E10620|E10621|E10622|E10628|E10630|E10638|E10641|E10649|E1065|E1069|E108|E109|E1100|E1101|E1121|E1122|E1129|E11311|E11319|E11321|E11329|E11331|E11339|E11341|E11349|E11351|E11359|E1136|E1139|E1140|E1141|E1142|E1143|E1144|E1149|E1151|E1152|E1159|E11610|E11618|E11620|E11621|E11622|E11628|E11630|E11638|E11641|E11649|E1165|E1169|E118|E119|E1300|E1301|E1310|E1311|E1321|E1322|E1329|E13311|E13319|E13321|E13329|E13331|E13339|E13341|E13349|E13351|E13359|E1336|E1339|E1340|E1341|E1342|E1343|E1344|E1349|E1351|E1352|E1359|E13610|E13618|E13620|E13621|E13622|E13628|E13630|E13638|E13641|E13649|E1365|E1369|E138|E139|25000|25001|25002|25003|25010|25011|25012|25013|25020|25021|25022|25023|25030|25031|25032|25033|25050|25051|25052|25053|25060|25061|25062|25063|25070|25071|25072|25073|25080|25081|25082|25083|25090|25091|25092|25093|25040|25041|25042|25043)",re.IGNORECASE)</v>
+      <c r="C32" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D32" t="s">
         <v>486</v>
@@ -27566,47 +27627,47 @@
         <v>25010</v>
       </c>
       <c r="EA32">
-        <f t="shared" ref="EA32:ET32" si="19">DZ32+1</f>
+        <f t="shared" ref="EA32:EC32" si="14">DZ32+1</f>
         <v>25011</v>
       </c>
       <c r="EB32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>25012</v>
       </c>
       <c r="EC32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>25013</v>
       </c>
       <c r="ED32">
-        <f t="shared" ref="ED32:ET32" si="20">EC32+7</f>
+        <f t="shared" ref="ED32" si="15">EC32+7</f>
         <v>25020</v>
       </c>
       <c r="EE32">
-        <f t="shared" ref="EE32:ET32" si="21">ED32+1</f>
+        <f t="shared" ref="EE32:EG32" si="16">ED32+1</f>
         <v>25021</v>
       </c>
       <c r="EF32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>25022</v>
       </c>
       <c r="EG32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>25023</v>
       </c>
       <c r="EH32">
-        <f t="shared" ref="EH32:ET32" si="22">EG32+7</f>
+        <f t="shared" ref="EH32" si="17">EG32+7</f>
         <v>25030</v>
       </c>
       <c r="EI32">
-        <f t="shared" ref="EI32:ET32" si="23">EH32+1</f>
+        <f t="shared" ref="EI32:EK32" si="18">EH32+1</f>
         <v>25031</v>
       </c>
       <c r="EJ32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>25032</v>
       </c>
       <c r="EK32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>25033</v>
       </c>
       <c r="EL32">
@@ -27614,98 +27675,98 @@
         <v>25050</v>
       </c>
       <c r="EM32">
-        <f t="shared" ref="EM32:ET32" si="24">EL32+1</f>
+        <f t="shared" ref="EM32:EO32" si="19">EL32+1</f>
         <v>25051</v>
       </c>
       <c r="EN32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>25052</v>
       </c>
       <c r="EO32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>25053</v>
       </c>
       <c r="EP32">
-        <f t="shared" ref="EP32:ET32" si="25">EO32+7</f>
+        <f t="shared" ref="EP32" si="20">EO32+7</f>
         <v>25060</v>
       </c>
       <c r="EQ32">
-        <f t="shared" ref="EQ32:FK32" si="26">EP32+1</f>
+        <f t="shared" ref="EQ32:FI32" si="21">EP32+1</f>
         <v>25061</v>
       </c>
       <c r="ER32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25062</v>
       </c>
       <c r="ES32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25063</v>
       </c>
       <c r="ET32">
-        <f t="shared" ref="ET32" si="27">ES32+7</f>
+        <f t="shared" ref="ET32" si="22">ES32+7</f>
         <v>25070</v>
       </c>
       <c r="EU32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25071</v>
       </c>
       <c r="EV32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25072</v>
       </c>
       <c r="EW32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25073</v>
       </c>
       <c r="EX32">
-        <f t="shared" ref="EX32:FK32" si="28">EW32+7</f>
+        <f t="shared" ref="EX32:FB32" si="23">EW32+7</f>
         <v>25080</v>
       </c>
       <c r="EY32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25081</v>
       </c>
       <c r="EZ32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25082</v>
       </c>
       <c r="FA32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25083</v>
       </c>
       <c r="FB32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>25090</v>
       </c>
       <c r="FC32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25091</v>
       </c>
       <c r="FD32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25092</v>
       </c>
       <c r="FE32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25093</v>
       </c>
       <c r="FF32">
         <v>25040</v>
       </c>
       <c r="FG32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25041</v>
       </c>
       <c r="FH32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25042</v>
       </c>
       <c r="FI32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>25043</v>
       </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>df['PQI16NOTPROC']=df['dxall'].str.contains(PQI16NOTPROC, regex=True)</v>
@@ -27713,9 +27774,9 @@
       <c r="B33" t="s">
         <v>932</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>=re.compile("\^+(?:S78011A|S78012A|S78019A|S78021A|S78022A|S78029A|S78111A|S78112A|S78119A|S78121A|S78122A|S78129A|S78911A|S78912A|S78919A|S78921A|S78922A|S78929A|S88011A|S88012A|S88019A|S88021A|S88022A|S88029A|S88111A|S88112A|S88119A|S88121A|S88122A|S88129A|S88911A|S88912A|S88919A|S88921A|S88922A|S88929A|S98011A|S98012A|S98019A|S98021A|S98022A|S98029A|S98111A|S98112A|S98119A|S98121A|S98122A|S98129A|S98131A|S98132A|S98139A|S98141A|S98142A|S98149A|S98211A|S98212A|S98219A|S98221A|S98222A|S98229A|S98311A|S98312A|S98319A|S98321A|S98322A|S98329A|S98911A|S98912A|S98919A|S98921A|S98922A|S98929A|8950|8951|8960|8961|8962|8963|8970|8971|8972|8973|8974|8975|8976|8977)",re.IGNORECASE)</v>
+      <c r="C33" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="D33" t="s">
         <v>532</v>
@@ -27960,32 +28021,32 @@
         <v>8971</v>
       </c>
       <c r="CF33">
-        <f t="shared" ref="CF33:CT33" si="29">CE33+1</f>
+        <f t="shared" ref="CF33:CK33" si="24">CE33+1</f>
         <v>8972</v>
       </c>
       <c r="CG33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>8973</v>
       </c>
       <c r="CH33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>8974</v>
       </c>
       <c r="CI33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>8975</v>
       </c>
       <c r="CJ33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>8976</v>
       </c>
       <c r="CK33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>8977</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D36:D217">
+  <sortState ref="D36:D217">
     <sortCondition ref="D217"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27995,21 +28056,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9265D75-FB6C-CE45-BD2A-0E346DE65C5F}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B8BBBA-EC1C-40A2-B3B5-398EE356E68F}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>896</v>
       </c>
@@ -28017,12 +28204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
         <v>df['CCI01']=df['dxall'].str.contains(CCI01, regex=True)</v>
@@ -28041,7 +28228,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A29" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
         <v>df['CCI02']=df['dxall'].str.contains(CCI02, regex=True)</v>
@@ -28057,7 +28244,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI03']=df['dxall'].str.contains(CCI03, regex=True)</v>
@@ -28082,7 +28269,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI03p']=df['dxall'].str.contains(CCI03p, regex=True)</v>
@@ -28098,7 +28285,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI04']=df['dxall'].str.contains(CCI04, regex=True)</v>
@@ -28138,7 +28325,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI05']=df['dxall'].str.contains(CCI05, regex=True)</v>
@@ -28154,7 +28341,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI06']=df['dxall'].str.contains(CCI06, regex=True)</v>
@@ -28188,7 +28375,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI07']=df['dxall'].str.contains(CCI07, regex=True)</v>
@@ -28225,7 +28412,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI08']=df['dxall'].str.contains(CCI08, regex=True)</v>
@@ -28250,7 +28437,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI09']=df['dxall'].str.contains(CCI09, regex=True)</v>
@@ -28275,7 +28462,7 @@
         <v>5716</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI10']=df['dxall'].str.contains(CCI10, regex=True)</v>
@@ -28303,7 +28490,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI11']=df['dxall'].str.contains(CCI11, regex=True)</v>
@@ -28325,7 +28512,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI12']=df['dxall'].str.contains(CCI12, regex=True)</v>
@@ -28344,7 +28531,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI13']=df['dxall'].str.contains(CCI13, regex=True)</v>
@@ -28393,7 +28580,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI14']=df['dxall'].str.contains(CCI14, regex=True)</v>
@@ -28514,7 +28701,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI15']=df['dxall'].str.contains(CCI15, regex=True)</v>
@@ -28560,7 +28747,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI16']=df['dxall'].str.contains(CCI16, regex=True)</v>
@@ -28588,7 +28775,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>df['CCI17']=df['dxall'].str.contains(CCI17, regex=True)</v>
@@ -28617,22 +28804,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49211974-B40D-4E45-9206-795C0F96E836}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>896</v>
       </c>
@@ -28640,12 +28827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>"df['"&amp;B12&amp;"']=df['dxall'].str.contains("&amp;B12&amp;", regex=True)"</f>
         <v>df['ELX01']=df['dxall'].str.contains(ELX01, regex=True)</v>
@@ -28682,7 +28869,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A42" si="0">"df['"&amp;B13&amp;"']=df['dxall'].str.contains("&amp;B13&amp;", regex=True)"</f>
         <v>df['ELX02']=df['dxall'].str.contains(ELX02, regex=True)</v>
@@ -28758,7 +28945,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX03']=df['dxall'].str.contains(ELX03, regex=True)</v>
@@ -28840,7 +29027,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX04']=df['dxall'].str.contains(ELX04, regex=True)</v>
@@ -28859,7 +29046,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX05']=df['dxall'].str.contains(ELX05, regex=True)</v>
@@ -28926,7 +29113,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX06']=df['dxall'].str.contains(ELX06, regex=True)</v>
@@ -28945,7 +29132,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX07']=df['dxall'].str.contains(ELX07, regex=True)</v>
@@ -28976,7 +29163,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX08']=df['dxall'].str.contains(ELX08, regex=True)</v>
@@ -29004,7 +29191,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX09']=df['dxall'].str.contains(ELX09, regex=True)</v>
@@ -29095,7 +29282,7 @@
         <v>7843</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX10']=df['dxall'].str.contains(ELX10, regex=True)</v>
@@ -29210,7 +29397,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX11']=df['dxall'].str.contains(ELX11, regex=True)</v>
@@ -29235,7 +29422,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX12']=df['dxall'].str.contains(ELX12, regex=True)</v>
@@ -29263,7 +29450,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX13']=df['dxall'].str.contains(ELX13, regex=True)</v>
@@ -29294,7 +29481,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX14']=df['dxall'].str.contains(ELX14, regex=True)</v>
@@ -29337,7 +29524,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX15']=df['dxall'].str.contains(ELX15, regex=True)</v>
@@ -29404,7 +29591,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX16']=df['dxall'].str.contains(ELX16, regex=True)</v>
@@ -29444,7 +29631,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX17']=df['dxall'].str.contains(ELX17, regex=True)</v>
@@ -29466,7 +29653,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX18']=df['dxall'].str.contains(ELX18, regex=True)</v>
@@ -29530,7 +29717,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX19']=df['dxall'].str.contains(ELX19, regex=True)</v>
@@ -29555,7 +29742,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX20']=df['dxall'].str.contains(ELX20, regex=True)</v>
@@ -29619,7 +29806,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX21']=df['dxall'].str.contains(ELX21, regex=True)</v>
@@ -29647,7 +29834,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX22']=df['dxall'].str.contains(ELX22, regex=True)</v>
@@ -29675,7 +29862,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX23']=df['dxall'].str.contains(ELX23, regex=True)</v>
@@ -29691,7 +29878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX24']=df['dxall'].str.contains(ELX24, regex=True)</v>
@@ -29716,7 +29903,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX25']=df['dxall'].str.contains(ELX25, regex=True)</v>
@@ -29732,7 +29919,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX26']=df['dxall'].str.contains(ELX26, regex=True)</v>
@@ -29748,7 +29935,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX27']=df['dxall'].str.contains(ELX27, regex=True)</v>
@@ -29791,7 +29978,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX28']=df['dxall'].str.contains(ELX28, regex=True)</v>
@@ -29834,7 +30021,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX29']=df['dxall'].str.contains(ELX29, regex=True)</v>
@@ -29904,7 +30091,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX30']=df['dxall'].str.contains(ELX30, regex=True)</v>
@@ -29932,7 +30119,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>df['ELX31']=df['dxall'].str.contains(ELX31, regex=True)</v>
